--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.770425384149946</v>
+        <v>0.7704253841499475</v>
       </c>
       <c r="D2">
         <v>1.017805883610567</v>
       </c>
       <c r="E2">
-        <v>0.8035697663611702</v>
+        <v>0.8035697663611718</v>
       </c>
       <c r="F2">
-        <v>0.8221851747623331</v>
+        <v>0.8221851747623345</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034013899625528</v>
+        <v>1.034013899625529</v>
       </c>
       <c r="J2">
-        <v>0.8025930343439407</v>
+        <v>0.8025930343439422</v>
       </c>
       <c r="K2">
-        <v>1.029022604850593</v>
+        <v>1.029022604850594</v>
       </c>
       <c r="L2">
-        <v>0.8186686405801991</v>
+        <v>0.8186686405802004</v>
       </c>
       <c r="M2">
-        <v>0.8368392660686691</v>
+        <v>0.8368392660686702</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8212721635689872</v>
+        <v>0.8212721635689829</v>
       </c>
       <c r="D3">
         <v>1.023524766425248</v>
       </c>
       <c r="E3">
-        <v>0.8476233523244896</v>
+        <v>0.8476233523244855</v>
       </c>
       <c r="F3">
-        <v>0.8654549053049604</v>
+        <v>0.8654549053049572</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.038809430461189</v>
       </c>
       <c r="J3">
-        <v>0.8481899287895918</v>
+        <v>0.8481899287895877</v>
       </c>
       <c r="K3">
         <v>1.03386523798136</v>
       </c>
       <c r="L3">
-        <v>0.8606653185879403</v>
+        <v>0.8606653185879363</v>
       </c>
       <c r="M3">
-        <v>0.8781578291408894</v>
+        <v>0.8781578291408862</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.026645247114631</v>
       </c>
       <c r="E4">
-        <v>0.8696019443036274</v>
+        <v>0.8696019443036271</v>
       </c>
       <c r="F4">
-        <v>0.887275266592172</v>
+        <v>0.8872752665921724</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.036432381377502</v>
       </c>
       <c r="L4">
-        <v>0.8815786923188477</v>
+        <v>0.8815786923188476</v>
       </c>
       <c r="M4">
-        <v>0.8989558989745042</v>
+        <v>0.8989558989745043</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8560723880946476</v>
+        <v>0.8560723880946494</v>
       </c>
       <c r="D5">
         <v>1.027868661803732</v>
       </c>
       <c r="E5">
-        <v>0.8779037050843498</v>
+        <v>0.8779037050843513</v>
       </c>
       <c r="F5">
-        <v>0.8955507601514173</v>
+        <v>0.8955507601514189</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.042226415052341</v>
       </c>
       <c r="J5">
-        <v>0.8794602218724252</v>
+        <v>0.879460221872427</v>
       </c>
       <c r="K5">
         <v>1.037425511825941</v>
       </c>
       <c r="L5">
-        <v>0.8894703886744785</v>
+        <v>0.8894703886744804</v>
       </c>
       <c r="M5">
-        <v>0.9068363299987253</v>
+        <v>0.906836329998727</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8576203413619528</v>
+        <v>0.8576203413619509</v>
       </c>
       <c r="D6">
         <v>1.028069701673773</v>
       </c>
       <c r="E6">
-        <v>0.8792524704195156</v>
+        <v>0.8792524704195137</v>
       </c>
       <c r="F6">
-        <v>0.896896838685414</v>
+        <v>0.8968968386854129</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042380280750219</v>
+        <v>1.042380280750218</v>
       </c>
       <c r="J6">
-        <v>0.8808517732952472</v>
+        <v>0.8808517732952456</v>
       </c>
       <c r="K6">
         <v>1.037588006991331</v>
       </c>
       <c r="L6">
-        <v>0.8907521071437167</v>
+        <v>0.890752107143715</v>
       </c>
       <c r="M6">
-        <v>0.9081177453501591</v>
+        <v>0.9081177453501579</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8466720321729669</v>
+        <v>0.8466720321729668</v>
       </c>
       <c r="D7">
-        <v>1.026661902732232</v>
+        <v>1.026661902732233</v>
       </c>
       <c r="E7">
-        <v>0.8697160796413091</v>
+        <v>0.8697160796413094</v>
       </c>
       <c r="F7">
         <v>0.8873889239398182</v>
@@ -626,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04129503917661</v>
+        <v>1.041295039176611</v>
       </c>
       <c r="J7">
-        <v>0.8710104679795541</v>
+        <v>0.8710104679795539</v>
       </c>
       <c r="K7">
         <v>1.036445951509928</v>
       </c>
       <c r="L7">
-        <v>0.8816872198659151</v>
+        <v>0.8816872198659154</v>
       </c>
       <c r="M7">
-        <v>0.8990641588215815</v>
+        <v>0.8990641588215817</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D8">
         <v>1.019908002504586</v>
       </c>
       <c r="E8">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F8">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J8">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K8">
         <v>1.030824894044352</v>
       </c>
       <c r="L8">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M8">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D9">
         <v>1.019908002504586</v>
       </c>
       <c r="E9">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F9">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J9">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K9">
         <v>1.030824894044352</v>
       </c>
       <c r="L9">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M9">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D10">
         <v>1.019908002504586</v>
       </c>
       <c r="E10">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F10">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J10">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K10">
         <v>1.030824894044352</v>
       </c>
       <c r="L10">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M10">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D11">
         <v>1.019908002504586</v>
       </c>
       <c r="E11">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F11">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J11">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K11">
         <v>1.030824894044352</v>
       </c>
       <c r="L11">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M11">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D12">
         <v>1.019908002504586</v>
       </c>
       <c r="E12">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F12">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J12">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K12">
         <v>1.030824894044352</v>
       </c>
       <c r="L12">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M12">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D13">
         <v>1.019908002504586</v>
       </c>
       <c r="E13">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F13">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J13">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K13">
         <v>1.030824894044352</v>
       </c>
       <c r="L13">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M13">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D14">
         <v>1.019908002504586</v>
       </c>
       <c r="E14">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F14">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J14">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K14">
         <v>1.030824894044352</v>
       </c>
       <c r="L14">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M14">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D15">
         <v>1.019908002504586</v>
       </c>
       <c r="E15">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F15">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J15">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K15">
         <v>1.030824894044352</v>
       </c>
       <c r="L15">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M15">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D16">
         <v>1.019908002504586</v>
       </c>
       <c r="E16">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F16">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J16">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K16">
         <v>1.030824894044352</v>
       </c>
       <c r="L16">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M16">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D17">
         <v>1.019908002504586</v>
       </c>
       <c r="E17">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F17">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J17">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K17">
         <v>1.030824894044352</v>
       </c>
       <c r="L17">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M17">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D18">
         <v>1.019908002504586</v>
       </c>
       <c r="E18">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F18">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J18">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K18">
         <v>1.030824894044352</v>
       </c>
       <c r="L18">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M18">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D19">
         <v>1.019908002504586</v>
       </c>
       <c r="E19">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F19">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J19">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K19">
         <v>1.030824894044352</v>
       </c>
       <c r="L19">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M19">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D20">
         <v>1.019908002504586</v>
       </c>
       <c r="E20">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F20">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J20">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K20">
         <v>1.030824894044352</v>
       </c>
       <c r="L20">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M20">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D21">
         <v>1.019908002504586</v>
       </c>
       <c r="E21">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F21">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J21">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K21">
         <v>1.030824894044352</v>
       </c>
       <c r="L21">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M21">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D22">
         <v>1.019908002504586</v>
       </c>
       <c r="E22">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F22">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J22">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K22">
         <v>1.030824894044352</v>
       </c>
       <c r="L22">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M22">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D23">
         <v>1.019908002504586</v>
       </c>
       <c r="E23">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F23">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J23">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K23">
         <v>1.030824894044352</v>
       </c>
       <c r="L23">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M23">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D24">
         <v>1.019908002504586</v>
       </c>
       <c r="E24">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F24">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J24">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K24">
         <v>1.030824894044352</v>
       </c>
       <c r="L24">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M24">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.789916685591034</v>
+        <v>0.7899166855910329</v>
       </c>
       <c r="D25">
         <v>1.019908002504586</v>
       </c>
       <c r="E25">
-        <v>0.8204253909046554</v>
+        <v>0.8204253909046543</v>
       </c>
       <c r="F25">
-        <v>0.8386591292688094</v>
+        <v>0.8386591292688086</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J25">
-        <v>0.8200541499564868</v>
+        <v>0.8200541499564858</v>
       </c>
       <c r="K25">
         <v>1.030824894044352</v>
       </c>
       <c r="L25">
-        <v>0.8347486049337839</v>
+        <v>0.8347486049337828</v>
       </c>
       <c r="M25">
-        <v>0.8525817882879906</v>
+        <v>0.8525817882879898</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7704253841499475</v>
+        <v>0.770425384149946</v>
       </c>
       <c r="D2">
         <v>1.017805883610567</v>
       </c>
       <c r="E2">
-        <v>0.8035697663611718</v>
+        <v>0.8035697663611702</v>
       </c>
       <c r="F2">
-        <v>0.8221851747623345</v>
+        <v>0.8221851747623331</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034013899625529</v>
+        <v>1.034013899625528</v>
       </c>
       <c r="J2">
-        <v>0.8025930343439422</v>
+        <v>0.8025930343439407</v>
       </c>
       <c r="K2">
-        <v>1.029022604850594</v>
+        <v>1.029022604850593</v>
       </c>
       <c r="L2">
-        <v>0.8186686405802004</v>
+        <v>0.8186686405801991</v>
       </c>
       <c r="M2">
-        <v>0.8368392660686702</v>
+        <v>0.8368392660686691</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8212721635689829</v>
+        <v>0.8212721635689872</v>
       </c>
       <c r="D3">
         <v>1.023524766425248</v>
       </c>
       <c r="E3">
-        <v>0.8476233523244855</v>
+        <v>0.8476233523244896</v>
       </c>
       <c r="F3">
-        <v>0.8654549053049572</v>
+        <v>0.8654549053049604</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.038809430461189</v>
       </c>
       <c r="J3">
-        <v>0.8481899287895877</v>
+        <v>0.8481899287895918</v>
       </c>
       <c r="K3">
         <v>1.03386523798136</v>
       </c>
       <c r="L3">
-        <v>0.8606653185879363</v>
+        <v>0.8606653185879403</v>
       </c>
       <c r="M3">
-        <v>0.8781578291408862</v>
+        <v>0.8781578291408894</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.026645247114631</v>
       </c>
       <c r="E4">
-        <v>0.8696019443036271</v>
+        <v>0.8696019443036274</v>
       </c>
       <c r="F4">
-        <v>0.8872752665921724</v>
+        <v>0.887275266592172</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.036432381377502</v>
       </c>
       <c r="L4">
-        <v>0.8815786923188476</v>
+        <v>0.8815786923188477</v>
       </c>
       <c r="M4">
-        <v>0.8989558989745043</v>
+        <v>0.8989558989745042</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8560723880946494</v>
+        <v>0.8560723880946476</v>
       </c>
       <c r="D5">
         <v>1.027868661803732</v>
       </c>
       <c r="E5">
-        <v>0.8779037050843513</v>
+        <v>0.8779037050843498</v>
       </c>
       <c r="F5">
-        <v>0.8955507601514189</v>
+        <v>0.8955507601514173</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.042226415052341</v>
       </c>
       <c r="J5">
-        <v>0.879460221872427</v>
+        <v>0.8794602218724252</v>
       </c>
       <c r="K5">
         <v>1.037425511825941</v>
       </c>
       <c r="L5">
-        <v>0.8894703886744804</v>
+        <v>0.8894703886744785</v>
       </c>
       <c r="M5">
-        <v>0.906836329998727</v>
+        <v>0.9068363299987253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8576203413619509</v>
+        <v>0.8576203413619528</v>
       </c>
       <c r="D6">
         <v>1.028069701673773</v>
       </c>
       <c r="E6">
-        <v>0.8792524704195137</v>
+        <v>0.8792524704195156</v>
       </c>
       <c r="F6">
-        <v>0.8968968386854129</v>
+        <v>0.896896838685414</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042380280750218</v>
+        <v>1.042380280750219</v>
       </c>
       <c r="J6">
-        <v>0.8808517732952456</v>
+        <v>0.8808517732952472</v>
       </c>
       <c r="K6">
         <v>1.037588006991331</v>
       </c>
       <c r="L6">
-        <v>0.890752107143715</v>
+        <v>0.8907521071437167</v>
       </c>
       <c r="M6">
-        <v>0.9081177453501579</v>
+        <v>0.9081177453501591</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8466720321729668</v>
+        <v>0.8466720321729669</v>
       </c>
       <c r="D7">
-        <v>1.026661902732233</v>
+        <v>1.026661902732232</v>
       </c>
       <c r="E7">
-        <v>0.8697160796413094</v>
+        <v>0.8697160796413091</v>
       </c>
       <c r="F7">
         <v>0.8873889239398182</v>
@@ -626,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041295039176611</v>
+        <v>1.04129503917661</v>
       </c>
       <c r="J7">
-        <v>0.8710104679795539</v>
+        <v>0.8710104679795541</v>
       </c>
       <c r="K7">
         <v>1.036445951509928</v>
       </c>
       <c r="L7">
-        <v>0.8816872198659154</v>
+        <v>0.8816872198659151</v>
       </c>
       <c r="M7">
-        <v>0.8990641588215817</v>
+        <v>0.8990641588215815</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D8">
         <v>1.019908002504586</v>
       </c>
       <c r="E8">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F8">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J8">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K8">
         <v>1.030824894044352</v>
       </c>
       <c r="L8">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M8">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D9">
         <v>1.019908002504586</v>
       </c>
       <c r="E9">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F9">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J9">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K9">
         <v>1.030824894044352</v>
       </c>
       <c r="L9">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M9">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D10">
         <v>1.019908002504586</v>
       </c>
       <c r="E10">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F10">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J10">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K10">
         <v>1.030824894044352</v>
       </c>
       <c r="L10">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M10">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D11">
         <v>1.019908002504586</v>
       </c>
       <c r="E11">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F11">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J11">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K11">
         <v>1.030824894044352</v>
       </c>
       <c r="L11">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M11">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D12">
         <v>1.019908002504586</v>
       </c>
       <c r="E12">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F12">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J12">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K12">
         <v>1.030824894044352</v>
       </c>
       <c r="L12">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M12">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D13">
         <v>1.019908002504586</v>
       </c>
       <c r="E13">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F13">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J13">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K13">
         <v>1.030824894044352</v>
       </c>
       <c r="L13">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M13">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D14">
         <v>1.019908002504586</v>
       </c>
       <c r="E14">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F14">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J14">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K14">
         <v>1.030824894044352</v>
       </c>
       <c r="L14">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M14">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D15">
         <v>1.019908002504586</v>
       </c>
       <c r="E15">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F15">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J15">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K15">
         <v>1.030824894044352</v>
       </c>
       <c r="L15">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M15">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D16">
         <v>1.019908002504586</v>
       </c>
       <c r="E16">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F16">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J16">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K16">
         <v>1.030824894044352</v>
       </c>
       <c r="L16">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M16">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D17">
         <v>1.019908002504586</v>
       </c>
       <c r="E17">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F17">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J17">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K17">
         <v>1.030824894044352</v>
       </c>
       <c r="L17">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M17">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D18">
         <v>1.019908002504586</v>
       </c>
       <c r="E18">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F18">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J18">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K18">
         <v>1.030824894044352</v>
       </c>
       <c r="L18">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M18">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D19">
         <v>1.019908002504586</v>
       </c>
       <c r="E19">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F19">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J19">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K19">
         <v>1.030824894044352</v>
       </c>
       <c r="L19">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M19">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D20">
         <v>1.019908002504586</v>
       </c>
       <c r="E20">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F20">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J20">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K20">
         <v>1.030824894044352</v>
       </c>
       <c r="L20">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M20">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D21">
         <v>1.019908002504586</v>
       </c>
       <c r="E21">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F21">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J21">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K21">
         <v>1.030824894044352</v>
       </c>
       <c r="L21">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M21">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D22">
         <v>1.019908002504586</v>
       </c>
       <c r="E22">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F22">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J22">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K22">
         <v>1.030824894044352</v>
       </c>
       <c r="L22">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M22">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D23">
         <v>1.019908002504586</v>
       </c>
       <c r="E23">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F23">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J23">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K23">
         <v>1.030824894044352</v>
       </c>
       <c r="L23">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M23">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D24">
         <v>1.019908002504586</v>
       </c>
       <c r="E24">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F24">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J24">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K24">
         <v>1.030824894044352</v>
       </c>
       <c r="L24">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M24">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7899166855910329</v>
+        <v>0.789916685591034</v>
       </c>
       <c r="D25">
         <v>1.019908002504586</v>
       </c>
       <c r="E25">
-        <v>0.8204253909046543</v>
+        <v>0.8204253909046554</v>
       </c>
       <c r="F25">
-        <v>0.8386591292688086</v>
+        <v>0.8386591292688094</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.035819696104239</v>
       </c>
       <c r="J25">
-        <v>0.8200541499564858</v>
+        <v>0.8200541499564868</v>
       </c>
       <c r="K25">
         <v>1.030824894044352</v>
       </c>
       <c r="L25">
-        <v>0.8347486049337828</v>
+        <v>0.8347486049337839</v>
       </c>
       <c r="M25">
-        <v>0.8525817882879898</v>
+        <v>0.8525817882879906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.770425384149946</v>
+        <v>0.779869120201317</v>
       </c>
       <c r="D2">
-        <v>1.017805883610567</v>
+        <v>1.018387037361322</v>
       </c>
       <c r="E2">
-        <v>0.8035697663611702</v>
+        <v>0.8116733272135753</v>
       </c>
       <c r="F2">
-        <v>0.8221851747623331</v>
+        <v>0.8291695763425622</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034013899625528</v>
+        <v>1.034662114021496</v>
       </c>
       <c r="J2">
-        <v>0.8025930343439407</v>
+        <v>0.8114528849048772</v>
       </c>
       <c r="K2">
-        <v>1.029022604850593</v>
+        <v>1.029596019616613</v>
       </c>
       <c r="L2">
-        <v>0.8186686405801991</v>
+        <v>0.8265752141076416</v>
       </c>
       <c r="M2">
-        <v>0.8368392660686691</v>
+        <v>0.8436636574863244</v>
+      </c>
+      <c r="N2">
+        <v>0.8126052410763889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8212721635689872</v>
+        <v>0.829092716740691</v>
       </c>
       <c r="D3">
-        <v>1.023524766425248</v>
+        <v>1.023995043271209</v>
       </c>
       <c r="E3">
-        <v>0.8476233523244896</v>
+        <v>0.8543599902733253</v>
       </c>
       <c r="F3">
-        <v>0.8654549053049604</v>
+        <v>0.8711556947347217</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038809430461189</v>
+        <v>1.039334826944522</v>
       </c>
       <c r="J3">
-        <v>0.8481899287895918</v>
+        <v>0.8556453114713337</v>
       </c>
       <c r="K3">
-        <v>1.03386523798136</v>
+        <v>1.034329839452815</v>
       </c>
       <c r="L3">
-        <v>0.8606653185879403</v>
+        <v>0.8672716916388026</v>
       </c>
       <c r="M3">
-        <v>0.8781578291408894</v>
+        <v>0.8837540355119884</v>
+      </c>
+      <c r="N3">
+        <v>0.8568604259575118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8465409462900092</v>
+        <v>0.8538694169268132</v>
       </c>
       <c r="D4">
-        <v>1.026645247114631</v>
+        <v>1.027080838194199</v>
       </c>
       <c r="E4">
-        <v>0.8696019443036274</v>
+        <v>0.8759238960153155</v>
       </c>
       <c r="F4">
-        <v>0.887275266592172</v>
+        <v>0.8925801266978421</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04128209024877</v>
+        <v>1.04176932049108</v>
       </c>
       <c r="J4">
-        <v>0.8708926495361304</v>
+        <v>0.8779272575322845</v>
       </c>
       <c r="K4">
-        <v>1.036432381377502</v>
+        <v>1.036863048950857</v>
       </c>
       <c r="L4">
-        <v>0.8815786923188477</v>
+        <v>0.8877929492361342</v>
       </c>
       <c r="M4">
-        <v>0.8989558989745042</v>
+        <v>0.9041748121359228</v>
+      </c>
+      <c r="N4">
+        <v>0.8791740149376444</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8560723880946476</v>
+        <v>0.8632494236895513</v>
       </c>
       <c r="D5">
-        <v>1.027868661803732</v>
+        <v>1.028293401249436</v>
       </c>
       <c r="E5">
-        <v>0.8779037050843498</v>
+        <v>0.8840980557605852</v>
       </c>
       <c r="F5">
-        <v>0.8955507601514173</v>
+        <v>0.9007326806182556</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042226415052341</v>
+        <v>1.042701756120239</v>
       </c>
       <c r="J5">
-        <v>0.8794602218724252</v>
+        <v>0.8863662930406534</v>
       </c>
       <c r="K5">
-        <v>1.037425511825941</v>
+        <v>1.037845583690691</v>
       </c>
       <c r="L5">
-        <v>0.8894703886744785</v>
+        <v>0.8955644252584244</v>
       </c>
       <c r="M5">
-        <v>0.9068363299987253</v>
+        <v>0.9119383727626289</v>
+      </c>
+      <c r="N5">
+        <v>0.8876250348444059</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8576203413619528</v>
+        <v>0.8647742765758298</v>
       </c>
       <c r="D6">
-        <v>1.028069701673773</v>
+        <v>1.02849277664974</v>
       </c>
       <c r="E6">
-        <v>0.8792524704195156</v>
+        <v>0.8854273587885554</v>
       </c>
       <c r="F6">
-        <v>0.896896838685414</v>
+        <v>0.9020599495039733</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042380280750219</v>
+        <v>1.042853801084526</v>
       </c>
       <c r="J6">
-        <v>0.8808517732952472</v>
+        <v>0.8877382895613806</v>
       </c>
       <c r="K6">
-        <v>1.037588006991331</v>
+        <v>1.038006454788315</v>
       </c>
       <c r="L6">
-        <v>0.8907521071437167</v>
+        <v>0.8968278310534692</v>
       </c>
       <c r="M6">
-        <v>0.9081177453501591</v>
+        <v>0.9132019224369951</v>
+      </c>
+      <c r="N6">
+        <v>0.8889989797575628</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8466720321729669</v>
+        <v>0.8539983075889892</v>
       </c>
       <c r="D7">
-        <v>1.026661902732232</v>
+        <v>1.027097337201924</v>
       </c>
       <c r="E7">
-        <v>0.8697160796413091</v>
+        <v>0.8760361814898221</v>
       </c>
       <c r="F7">
-        <v>0.8873889239398182</v>
+        <v>0.892692006180968</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04129503917661</v>
+        <v>1.041782097622466</v>
       </c>
       <c r="J7">
-        <v>0.8710104679795541</v>
+        <v>0.8780432087664064</v>
       </c>
       <c r="K7">
-        <v>1.036445951509928</v>
+        <v>1.036876466081785</v>
       </c>
       <c r="L7">
-        <v>0.8816872198659151</v>
+        <v>0.8878997321325349</v>
       </c>
       <c r="M7">
-        <v>0.8990641588215815</v>
+        <v>0.9042813807377433</v>
+      </c>
+      <c r="N7">
+        <v>0.8792901308358184</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D8">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E8">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F8">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J8">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K8">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L8">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M8">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N8">
+        <v>0.8294336501792536</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D9">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E9">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F9">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J9">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K9">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L9">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M9">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N9">
+        <v>0.8294336501792536</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D10">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E10">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F10">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J10">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K10">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L10">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M10">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N10">
+        <v>0.8294336501792536</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D11">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E11">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F11">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J11">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K11">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L11">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M11">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N11">
+        <v>0.8294336501792536</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D12">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E12">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F12">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J12">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K12">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L12">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M12">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N12">
+        <v>0.8294336501792536</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D13">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E13">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F13">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J13">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K13">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L13">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M13">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N13">
+        <v>0.8294336501792536</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D14">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E14">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F14">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J14">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K14">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L14">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M14">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N14">
+        <v>0.8294336501792536</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D15">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E15">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F15">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J15">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K15">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L15">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M15">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N15">
+        <v>0.8294336501792536</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D16">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E16">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F16">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J16">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K16">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L16">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M16">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N16">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D17">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E17">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F17">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J17">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K17">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L17">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M17">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N17">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D18">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E18">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F18">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J18">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K18">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L18">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M18">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N18">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D19">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E19">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F19">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J19">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K19">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L19">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M19">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N19">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D20">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E20">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F20">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J20">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K20">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L20">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M20">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N20">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D21">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E21">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F21">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J21">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K21">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L21">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M21">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N21">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D22">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E22">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F22">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J22">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K22">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L22">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M22">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N22">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D23">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E23">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F23">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J23">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K23">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L23">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M23">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N23">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D24">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E24">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F24">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J24">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K24">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L24">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M24">
-        <v>0.8525817882879906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N24">
+        <v>0.8294336501792536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.789916685591034</v>
+        <v>0.7986039512671047</v>
       </c>
       <c r="D25">
-        <v>1.019908002504586</v>
+        <v>1.020437960567302</v>
       </c>
       <c r="E25">
-        <v>0.8204253909046554</v>
+        <v>0.827892148016939</v>
       </c>
       <c r="F25">
-        <v>0.8386591292688094</v>
+        <v>0.8450484040432645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035819696104239</v>
+        <v>1.036411104032258</v>
       </c>
       <c r="J25">
-        <v>0.8200541499564868</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K25">
-        <v>1.030824894044352</v>
+        <v>1.031348024293603</v>
       </c>
       <c r="L25">
-        <v>0.8347486049337839</v>
+        <v>0.8420484961066009</v>
       </c>
       <c r="M25">
-        <v>0.8525817882879906</v>
+        <v>0.8588361099899747</v>
+      </c>
+      <c r="N25">
+        <v>0.8294336501792536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.779869120201317</v>
+        <v>0.9144582680501547</v>
       </c>
       <c r="D2">
-        <v>1.018387037361322</v>
+        <v>1.027824971374858</v>
       </c>
       <c r="E2">
-        <v>0.8116733272135753</v>
+        <v>0.9322318931699313</v>
       </c>
       <c r="F2">
-        <v>0.8291695763425622</v>
+        <v>0.886123539950287</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034662114021496</v>
+        <v>1.040728538619639</v>
       </c>
       <c r="J2">
-        <v>0.8114528849048772</v>
+        <v>0.9395376016593688</v>
       </c>
       <c r="K2">
-        <v>1.029596019616613</v>
+        <v>1.038909806776669</v>
       </c>
       <c r="L2">
-        <v>0.8265752141076416</v>
+        <v>0.9447236876721221</v>
       </c>
       <c r="M2">
-        <v>0.8436636574863244</v>
+        <v>0.899435842732126</v>
       </c>
       <c r="N2">
-        <v>0.8126052410763889</v>
+        <v>0.9408718528201944</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.829092716740691</v>
+        <v>0.9297956294040379</v>
       </c>
       <c r="D3">
-        <v>1.023995043271209</v>
+        <v>1.032240013506152</v>
       </c>
       <c r="E3">
-        <v>0.8543599902733253</v>
+        <v>0.945124046100725</v>
       </c>
       <c r="F3">
-        <v>0.8711556947347217</v>
+        <v>0.9053475856905251</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039334826944522</v>
+        <v>1.043672979301641</v>
       </c>
       <c r="J3">
-        <v>0.8556453114713337</v>
+        <v>0.9524020358590395</v>
       </c>
       <c r="K3">
-        <v>1.034329839452815</v>
+        <v>1.04247634889223</v>
       </c>
       <c r="L3">
-        <v>0.8672716916388026</v>
+        <v>0.9565108078808424</v>
       </c>
       <c r="M3">
-        <v>0.8837540355119884</v>
+        <v>0.9173542228015616</v>
       </c>
       <c r="N3">
-        <v>0.8568604259575118</v>
+        <v>0.9537545559919995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8538694169268132</v>
+        <v>0.9390437749791138</v>
       </c>
       <c r="D4">
-        <v>1.027080838194199</v>
+        <v>1.03494181454209</v>
       </c>
       <c r="E4">
-        <v>0.8759238960153155</v>
+        <v>0.9529114028044379</v>
       </c>
       <c r="F4">
-        <v>0.8925801266978421</v>
+        <v>0.9169078156904634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04176932049108</v>
+        <v>1.045436655651073</v>
       </c>
       <c r="J4">
-        <v>0.8779272575322845</v>
+        <v>0.9601466245100261</v>
       </c>
       <c r="K4">
-        <v>1.036863048950857</v>
+        <v>1.044636048426396</v>
       </c>
       <c r="L4">
-        <v>0.8877929492361342</v>
+        <v>0.963613455045601</v>
       </c>
       <c r="M4">
-        <v>0.9041748121359228</v>
+        <v>0.9281245728495288</v>
       </c>
       <c r="N4">
-        <v>0.8791740149376444</v>
+        <v>0.9615101428471875</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8632494236895513</v>
+        <v>0.9427903656873859</v>
       </c>
       <c r="D5">
-        <v>1.028293401249436</v>
+        <v>1.036044144268622</v>
       </c>
       <c r="E5">
-        <v>0.8840980557605852</v>
+        <v>0.9560690415334391</v>
       </c>
       <c r="F5">
-        <v>0.9007326806182556</v>
+        <v>0.9215856108074468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042701756120239</v>
+        <v>1.046147517019716</v>
       </c>
       <c r="J5">
-        <v>0.8863662930406534</v>
+        <v>0.9632810079103566</v>
       </c>
       <c r="K5">
-        <v>1.037845583690691</v>
+        <v>1.045511975770478</v>
       </c>
       <c r="L5">
-        <v>0.8955644252584244</v>
+        <v>0.9664895095536735</v>
       </c>
       <c r="M5">
-        <v>0.9119383727626289</v>
+        <v>0.9324813718301872</v>
       </c>
       <c r="N5">
-        <v>0.8876250348444059</v>
+        <v>0.9646489774314654</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8647742765758298</v>
+        <v>0.9434116608724141</v>
       </c>
       <c r="D6">
-        <v>1.02849277664974</v>
+        <v>1.036227356479634</v>
       </c>
       <c r="E6">
-        <v>0.8854273587885554</v>
+        <v>0.9565928274241068</v>
       </c>
       <c r="F6">
-        <v>0.9020599495039733</v>
+        <v>0.9223610570965911</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042853801084526</v>
+        <v>1.046265163275676</v>
       </c>
       <c r="J6">
-        <v>0.8877382895613806</v>
+        <v>0.9638005961918771</v>
       </c>
       <c r="K6">
-        <v>1.038006454788315</v>
+        <v>1.045657257536702</v>
       </c>
       <c r="L6">
-        <v>0.8968278310534692</v>
+        <v>0.9669663587828388</v>
       </c>
       <c r="M6">
-        <v>0.9132019224369951</v>
+        <v>0.9332035191550099</v>
       </c>
       <c r="N6">
-        <v>0.8889989797575628</v>
+        <v>0.9651693035879431</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8539983075889892</v>
+        <v>0.9390943686500294</v>
       </c>
       <c r="D7">
-        <v>1.027097337201924</v>
+        <v>1.03495667137334</v>
       </c>
       <c r="E7">
-        <v>0.8760361814898221</v>
+        <v>0.9529540325001118</v>
       </c>
       <c r="F7">
-        <v>0.892692006180968</v>
+        <v>0.9169710036355813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041782097622466</v>
+        <v>1.045446270555475</v>
       </c>
       <c r="J7">
-        <v>0.8780432087664064</v>
+        <v>0.9601889634338593</v>
       </c>
       <c r="K7">
-        <v>1.036876466081785</v>
+        <v>1.04464787437247</v>
       </c>
       <c r="L7">
-        <v>0.8878997321325349</v>
+        <v>0.9636522987263951</v>
       </c>
       <c r="M7">
-        <v>0.9042813807377433</v>
+        <v>0.9281834305188694</v>
       </c>
       <c r="N7">
-        <v>0.8792901308358184</v>
+        <v>0.9615525418971489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7986039512671047</v>
+        <v>0.9197955779092797</v>
       </c>
       <c r="D8">
-        <v>1.020437960567302</v>
+        <v>1.029351589354495</v>
       </c>
       <c r="E8">
-        <v>0.827892148016939</v>
+        <v>0.9367150264517371</v>
       </c>
       <c r="F8">
-        <v>0.8450484040432645</v>
+        <v>0.892821752430029</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036411104032258</v>
+        <v>1.041755176380903</v>
       </c>
       <c r="J8">
-        <v>0.8282574296267287</v>
+        <v>0.9440169705538599</v>
       </c>
       <c r="K8">
-        <v>1.031348024293603</v>
+        <v>1.040148127359813</v>
       </c>
       <c r="L8">
-        <v>0.8420484961066009</v>
+        <v>0.9488264214308456</v>
       </c>
       <c r="M8">
-        <v>0.8588361099899747</v>
+        <v>0.9056799751680412</v>
       </c>
       <c r="N8">
-        <v>0.8294336501792536</v>
+        <v>0.9453575829323062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7986039512671047</v>
+        <v>0.879324209618748</v>
       </c>
       <c r="D9">
-        <v>1.020437960567302</v>
+        <v>1.018066546537571</v>
       </c>
       <c r="E9">
-        <v>0.827892148016939</v>
+        <v>0.902811973977887</v>
       </c>
       <c r="F9">
-        <v>0.8450484040432645</v>
+        <v>0.8417379302131269</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036411104032258</v>
+        <v>1.033962992944833</v>
       </c>
       <c r="J9">
-        <v>0.8282574296267287</v>
+        <v>0.9099982525357775</v>
       </c>
       <c r="K9">
-        <v>1.031348024293603</v>
+        <v>1.030873152612105</v>
       </c>
       <c r="L9">
-        <v>0.8420484961066009</v>
+        <v>0.9177067517015566</v>
       </c>
       <c r="M9">
-        <v>0.8588361099899747</v>
+        <v>0.858053530889141</v>
       </c>
       <c r="N9">
-        <v>0.8294336501792536</v>
+        <v>0.9112905544326368</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7986039512671047</v>
+        <v>0.8451302000256562</v>
       </c>
       <c r="D10">
-        <v>1.020437960567302</v>
+        <v>1.009117803685955</v>
       </c>
       <c r="E10">
-        <v>0.827892148016939</v>
+        <v>0.8743435800144592</v>
       </c>
       <c r="F10">
-        <v>0.8450484040432645</v>
+        <v>0.7978542463036408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036411104032258</v>
+        <v>1.027457384449528</v>
       </c>
       <c r="J10">
-        <v>0.8282574296267287</v>
+        <v>0.8811934077029292</v>
       </c>
       <c r="K10">
-        <v>1.031348024293603</v>
+        <v>1.023324361951523</v>
       </c>
       <c r="L10">
-        <v>0.8420484961066009</v>
+        <v>0.8914242680919084</v>
       </c>
       <c r="M10">
-        <v>0.8588361099899747</v>
+        <v>0.8171712966804394</v>
       </c>
       <c r="N10">
-        <v>0.8294336501792536</v>
+        <v>0.882444803416164</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7986039512671047</v>
+        <v>0.827312694411156</v>
       </c>
       <c r="D11">
-        <v>1.020437960567302</v>
+        <v>1.004694828259795</v>
       </c>
       <c r="E11">
-        <v>0.827892148016939</v>
+        <v>0.8595796840848815</v>
       </c>
       <c r="F11">
-        <v>0.8450484040432645</v>
+        <v>0.7746103793315143</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036411104032258</v>
+        <v>1.024132683067453</v>
       </c>
       <c r="J11">
-        <v>0.8282574296267287</v>
+        <v>0.8661730119215304</v>
       </c>
       <c r="K11">
-        <v>1.031348024293603</v>
+        <v>1.019528746794194</v>
       </c>
       <c r="L11">
-        <v>0.8420484961066009</v>
+        <v>0.8777439259634517</v>
       </c>
       <c r="M11">
-        <v>0.8588361099899747</v>
+        <v>0.795549811956162</v>
       </c>
       <c r="N11">
-        <v>0.8294336501792536</v>
+        <v>0.8674030769498922</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7986039512671047</v>
+        <v>0.8200142124530287</v>
       </c>
       <c r="D12">
-        <v>1.020437960567302</v>
+        <v>1.002933662007629</v>
       </c>
       <c r="E12">
-        <v>0.827892148016939</v>
+        <v>0.8535467387501336</v>
       </c>
       <c r="F12">
-        <v>0.8450484040432645</v>
+        <v>0.7649957619443802</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036411104032258</v>
+        <v>1.022787602697449</v>
       </c>
       <c r="J12">
-        <v>0.8282574296267287</v>
+        <v>0.8600190646990266</v>
       </c>
       <c r="K12">
-        <v>1.031348024293603</v>
+        <v>1.01800487268352</v>
       </c>
       <c r="L12">
-        <v>0.8420484961066009</v>
+        <v>0.8721440844099698</v>
       </c>
       <c r="M12">
-        <v>0.8588361099899747</v>
+        <v>0.7866157508040637</v>
       </c>
       <c r="N12">
-        <v>0.8294336501792536</v>
+        <v>0.8612403904164647</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7986039512671047</v>
+        <v>0.8216164264200029</v>
       </c>
       <c r="D13">
-        <v>1.020437960567302</v>
+        <v>1.003317706875702</v>
       </c>
       <c r="E13">
-        <v>0.827892148016939</v>
+        <v>0.8548703847891943</v>
       </c>
       <c r="F13">
-        <v>0.8450484040432645</v>
+        <v>0.7671115164977516</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036411104032258</v>
+        <v>1.02308197689014</v>
       </c>
       <c r="J13">
-        <v>0.8282574296267287</v>
+        <v>0.8613700711042664</v>
       </c>
       <c r="K13">
-        <v>1.031348024293603</v>
+        <v>1.018337798401272</v>
       </c>
       <c r="L13">
-        <v>0.8420484961066009</v>
+        <v>0.8733731870773705</v>
       </c>
       <c r="M13">
-        <v>0.8588361099899747</v>
+        <v>0.7885812082419001</v>
       </c>
       <c r="N13">
-        <v>0.8294336501792536</v>
+        <v>0.862593315405763</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7986039512671047</v>
+        <v>0.8267252975307861</v>
       </c>
       <c r="D14">
-        <v>1.020437960567302</v>
+        <v>1.004551977735015</v>
       </c>
       <c r="E14">
-        <v>0.827892148016939</v>
+        <v>0.8590938184519176</v>
       </c>
       <c r="F14">
-        <v>0.8450484040432645</v>
+        <v>0.7738387284570122</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036411104032258</v>
+        <v>1.0240240428509</v>
       </c>
       <c r="J14">
-        <v>0.8282574296267287</v>
+        <v>0.8656777515718479</v>
       </c>
       <c r="K14">
-        <v>1.031348024293603</v>
+        <v>1.019405414872959</v>
       </c>
       <c r="L14">
-        <v>0.8420484961066009</v>
+        <v>0.877293148248057</v>
       </c>
       <c r="M14">
-        <v>0.8588361099899747</v>
+        <v>0.7948325562918843</v>
       </c>
       <c r="N14">
-        <v>0.8294336501792536</v>
+        <v>0.8669071132737058</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7986039512671047</v>
+        <v>0.8297728888475331</v>
       </c>
       <c r="D15">
-        <v>1.020437960567302</v>
+        <v>1.005295216620442</v>
       </c>
       <c r="E15">
-        <v>0.827892148016939</v>
+        <v>0.8616152415735736</v>
       </c>
       <c r="F15">
-        <v>0.8450484040432645</v>
+        <v>0.7778383431963442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036411104032258</v>
+        <v>1.02458840999365</v>
       </c>
       <c r="J15">
-        <v>0.8282574296267287</v>
+        <v>0.8682472651956517</v>
       </c>
       <c r="K15">
-        <v>1.031348024293603</v>
+        <v>1.020046582572517</v>
       </c>
       <c r="L15">
-        <v>0.8420484961066009</v>
+        <v>0.8796320857878777</v>
       </c>
       <c r="M15">
-        <v>0.8588361099899747</v>
+        <v>0.7985506348584784</v>
       </c>
       <c r="N15">
-        <v>0.8294336501792536</v>
+        <v>0.8694802759015828</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7986039512671047</v>
+        <v>0.8462335280426235</v>
       </c>
       <c r="D16">
-        <v>1.020437960567302</v>
+        <v>1.009397298797062</v>
       </c>
       <c r="E16">
-        <v>0.827892148016939</v>
+        <v>0.8752594495687834</v>
       </c>
       <c r="F16">
-        <v>0.8450484040432645</v>
+        <v>0.7992839953507898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036411104032258</v>
+        <v>1.027664988882397</v>
       </c>
       <c r="J16">
-        <v>0.8282574296267287</v>
+        <v>0.8821233490317402</v>
       </c>
       <c r="K16">
-        <v>1.031348024293603</v>
+        <v>1.02356274446758</v>
       </c>
       <c r="L16">
-        <v>0.8420484961066009</v>
+        <v>0.892271810604828</v>
       </c>
       <c r="M16">
-        <v>0.8588361099899747</v>
+        <v>0.8185021623122388</v>
       </c>
       <c r="N16">
-        <v>0.8294336501792536</v>
+        <v>0.8833760653683276</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7986039512671047</v>
+        <v>0.8556382066074185</v>
       </c>
       <c r="D17">
-        <v>1.020437960567302</v>
+        <v>1.01180543510451</v>
       </c>
       <c r="E17">
-        <v>0.827892148016939</v>
+        <v>0.8830737629793638</v>
       </c>
       <c r="F17">
-        <v>0.8450484040432645</v>
+        <v>0.8114303563286394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036411104032258</v>
+        <v>1.029441759570493</v>
       </c>
       <c r="J17">
-        <v>0.8282574296267287</v>
+        <v>0.8900489966844282</v>
       </c>
       <c r="K17">
-        <v>1.031348024293603</v>
+        <v>1.025609590783118</v>
       </c>
       <c r="L17">
-        <v>0.8420484961066009</v>
+        <v>0.8994978308615252</v>
       </c>
       <c r="M17">
-        <v>0.8588361099899747</v>
+        <v>0.829812006754302</v>
       </c>
       <c r="N17">
-        <v>0.8294336501792536</v>
+        <v>0.891312968349767</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7986039512671047</v>
+        <v>0.860853456954882</v>
       </c>
       <c r="D18">
-        <v>1.020437960567302</v>
+        <v>1.013160346597758</v>
       </c>
       <c r="E18">
-        <v>0.827892148016939</v>
+        <v>0.8874128035116816</v>
       </c>
       <c r="F18">
-        <v>0.8450484040432645</v>
+        <v>0.8181364137380778</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036411104032258</v>
+        <v>1.030432122898648</v>
       </c>
       <c r="J18">
-        <v>0.8282574296267287</v>
+        <v>0.8944430958192</v>
       </c>
       <c r="K18">
-        <v>1.031348024293603</v>
+        <v>1.026755717181207</v>
       </c>
       <c r="L18">
-        <v>0.8420484961066009</v>
+        <v>0.9035060661348038</v>
       </c>
       <c r="M18">
-        <v>0.8588361099899747</v>
+        <v>0.8360586417479887</v>
       </c>
       <c r="N18">
-        <v>0.8294336501792536</v>
+        <v>0.8957133076093203</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7986039512671047</v>
+        <v>0.8625903760622968</v>
       </c>
       <c r="D19">
-        <v>1.020437960567302</v>
+        <v>1.013614625288866</v>
       </c>
       <c r="E19">
-        <v>0.827892148016939</v>
+        <v>0.888858793440216</v>
       </c>
       <c r="F19">
-        <v>0.8450484040432645</v>
+        <v>0.8203654490992581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036411104032258</v>
+        <v>1.0307626867328</v>
       </c>
       <c r="J19">
-        <v>0.8282574296267287</v>
+        <v>0.8959063571963151</v>
       </c>
       <c r="K19">
-        <v>1.031348024293603</v>
+        <v>1.027139113187545</v>
       </c>
       <c r="L19">
-        <v>0.8420484961066009</v>
+        <v>0.9048411506933959</v>
       </c>
       <c r="M19">
-        <v>0.8588361099899747</v>
+        <v>0.8381353029538909</v>
       </c>
       <c r="N19">
-        <v>0.8294336501792536</v>
+        <v>0.8971786469854293</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7986039512671047</v>
+        <v>0.8546582733312013</v>
       </c>
       <c r="D20">
-        <v>1.020437960567302</v>
+        <v>1.011552388565949</v>
       </c>
       <c r="E20">
-        <v>0.827892148016939</v>
+        <v>0.8822589180823086</v>
       </c>
       <c r="F20">
-        <v>0.8450484040432645</v>
+        <v>0.8101680270209028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036411104032258</v>
+        <v>1.029256057207264</v>
       </c>
       <c r="J20">
-        <v>0.8282574296267287</v>
+        <v>0.8892232727324131</v>
       </c>
       <c r="K20">
-        <v>1.031348024293603</v>
+        <v>1.025395099879463</v>
       </c>
       <c r="L20">
-        <v>0.8420484961066009</v>
+        <v>0.8987447774672868</v>
       </c>
       <c r="M20">
-        <v>0.8588361099899747</v>
+        <v>0.828636338036759</v>
       </c>
       <c r="N20">
-        <v>0.8294336501792536</v>
+        <v>0.8904860717750281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7986039512671047</v>
+        <v>0.8252424506045853</v>
       </c>
       <c r="D21">
-        <v>1.020437960567302</v>
+        <v>1.004192219033053</v>
       </c>
       <c r="E21">
-        <v>0.827892148016939</v>
+        <v>0.8578675301921314</v>
       </c>
       <c r="F21">
-        <v>0.8450484040432645</v>
+        <v>0.7718891011509559</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036411104032258</v>
+        <v>1.02375008227198</v>
       </c>
       <c r="J21">
-        <v>0.8282574296267287</v>
+        <v>0.8644274796459598</v>
       </c>
       <c r="K21">
-        <v>1.031348024293603</v>
+        <v>1.019094601436238</v>
       </c>
       <c r="L21">
-        <v>0.8420484961066009</v>
+        <v>0.8761552575432513</v>
       </c>
       <c r="M21">
-        <v>0.8588361099899747</v>
+        <v>0.7930205323534149</v>
       </c>
       <c r="N21">
-        <v>0.8294336501792536</v>
+        <v>0.8656550658182747</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7986039512671047</v>
+        <v>0.8024962989966897</v>
       </c>
       <c r="D22">
-        <v>1.020437960567302</v>
+        <v>0.9988316251047116</v>
       </c>
       <c r="E22">
-        <v>0.827892148016939</v>
+        <v>0.8391026555295961</v>
       </c>
       <c r="F22">
-        <v>0.8450484040432645</v>
+        <v>0.7416567721130025</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036411104032258</v>
+        <v>1.019604960932104</v>
       </c>
       <c r="J22">
-        <v>0.8282574296267287</v>
+        <v>0.8452462323259067</v>
       </c>
       <c r="K22">
-        <v>1.031348024293603</v>
+        <v>1.01442626331707</v>
       </c>
       <c r="L22">
-        <v>0.8420484961066009</v>
+        <v>0.8587139750072892</v>
       </c>
       <c r="M22">
-        <v>0.8588361099899747</v>
+        <v>0.7649573678036101</v>
       </c>
       <c r="N22">
-        <v>0.8294336501792536</v>
+        <v>0.8464465789269077</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7986039512671047</v>
+        <v>0.8151009927892426</v>
       </c>
       <c r="D23">
-        <v>1.020437960567302</v>
+        <v>1.001765134268454</v>
       </c>
       <c r="E23">
-        <v>0.827892148016939</v>
+        <v>0.8494904076220927</v>
       </c>
       <c r="F23">
-        <v>0.8450484040432645</v>
+        <v>0.7584890403529844</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036411104032258</v>
+        <v>1.021888205730339</v>
       </c>
       <c r="J23">
-        <v>0.8282574296267287</v>
+        <v>0.8558760229230764</v>
       </c>
       <c r="K23">
-        <v>1.031348024293603</v>
+        <v>1.016989701602854</v>
       </c>
       <c r="L23">
-        <v>0.8420484961066009</v>
+        <v>0.868375794074422</v>
       </c>
       <c r="M23">
-        <v>0.8588361099899747</v>
+        <v>0.7805732626070402</v>
       </c>
       <c r="N23">
-        <v>0.8294336501792536</v>
+        <v>0.8570914650459792</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7986039512671047</v>
+        <v>0.8551018842241956</v>
       </c>
       <c r="D24">
-        <v>1.020437960567302</v>
+        <v>1.011666880779016</v>
       </c>
       <c r="E24">
-        <v>0.827892148016939</v>
+        <v>0.8826277765293027</v>
       </c>
       <c r="F24">
-        <v>0.8450484040432645</v>
+        <v>0.810739568420257</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036411104032258</v>
+        <v>1.029340108133375</v>
       </c>
       <c r="J24">
-        <v>0.8282574296267287</v>
+        <v>0.8895970769345727</v>
       </c>
       <c r="K24">
-        <v>1.031348024293603</v>
+        <v>1.025492164506517</v>
       </c>
       <c r="L24">
-        <v>0.8420484961066009</v>
+        <v>0.8990856775024326</v>
       </c>
       <c r="M24">
-        <v>0.8588361099899747</v>
+        <v>0.8291686349522205</v>
       </c>
       <c r="N24">
-        <v>0.8294336501792536</v>
+        <v>0.8908604068220308</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7986039512671047</v>
+        <v>0.8907758328239366</v>
       </c>
       <c r="D25">
-        <v>1.020437960567302</v>
+        <v>1.021188690697318</v>
       </c>
       <c r="E25">
-        <v>0.827892148016939</v>
+        <v>0.912383190838037</v>
       </c>
       <c r="F25">
-        <v>0.8450484040432645</v>
+        <v>0.8562689863557168</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036411104032258</v>
+        <v>1.036165088451999</v>
       </c>
       <c r="J25">
-        <v>0.8282574296267287</v>
+        <v>0.9196347731827754</v>
       </c>
       <c r="K25">
-        <v>1.031348024293603</v>
+        <v>1.033466748820796</v>
       </c>
       <c r="L25">
-        <v>0.8420484961066009</v>
+        <v>0.9265131598471475</v>
       </c>
       <c r="M25">
-        <v>0.8588361099899747</v>
+        <v>0.8716006069208396</v>
       </c>
       <c r="N25">
-        <v>0.8294336501792536</v>
+        <v>0.9209407600442778</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9144582680501547</v>
+        <v>0.9676667829503529</v>
       </c>
       <c r="D2">
-        <v>1.027824971374858</v>
+        <v>1.030363601712708</v>
       </c>
       <c r="E2">
-        <v>0.9322318931699313</v>
+        <v>0.9785551564445871</v>
       </c>
       <c r="F2">
-        <v>0.886123539950287</v>
+        <v>0.9800612460334286</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040728538619639</v>
+        <v>1.049642072823448</v>
       </c>
       <c r="J2">
-        <v>0.9395376016593688</v>
+        <v>0.9908595402431681</v>
       </c>
       <c r="K2">
-        <v>1.038909806776669</v>
+        <v>1.041415529614302</v>
       </c>
       <c r="L2">
-        <v>0.9447236876721221</v>
+        <v>0.990321563602198</v>
       </c>
       <c r="M2">
-        <v>0.899435842732126</v>
+        <v>0.9918055304013139</v>
       </c>
       <c r="N2">
-        <v>0.9408718528201944</v>
+        <v>1.000950528190593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9297956294040379</v>
+        <v>0.9724242370721397</v>
       </c>
       <c r="D3">
-        <v>1.032240013506152</v>
+        <v>1.033013573475086</v>
       </c>
       <c r="E3">
-        <v>0.945124046100725</v>
+        <v>0.9823347024148528</v>
       </c>
       <c r="F3">
-        <v>0.9053475856905251</v>
+        <v>0.9864144807142735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043672979301641</v>
+        <v>1.050824961121203</v>
       </c>
       <c r="J3">
-        <v>0.9524020358590395</v>
+        <v>0.9936959556889124</v>
       </c>
       <c r="K3">
-        <v>1.04247634889223</v>
+        <v>1.043240770953603</v>
       </c>
       <c r="L3">
-        <v>0.9565108078808424</v>
+        <v>0.9931987178601811</v>
       </c>
       <c r="M3">
-        <v>0.9173542228015616</v>
+        <v>0.9972241936103335</v>
       </c>
       <c r="N3">
-        <v>0.9537545559919995</v>
+        <v>1.001917390717098</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9390437749791138</v>
+        <v>0.9754338388006105</v>
       </c>
       <c r="D4">
-        <v>1.03494181454209</v>
+        <v>1.034673337993165</v>
       </c>
       <c r="E4">
-        <v>0.9529114028044379</v>
+        <v>0.9847323972178655</v>
       </c>
       <c r="F4">
-        <v>0.9169078156904634</v>
+        <v>0.9904065951078588</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045436655651073</v>
+        <v>1.051546810406158</v>
       </c>
       <c r="J4">
-        <v>0.9601466245100261</v>
+        <v>0.9954875317393187</v>
       </c>
       <c r="K4">
-        <v>1.044636048426396</v>
+        <v>1.044370549440482</v>
       </c>
       <c r="L4">
-        <v>0.963613455045601</v>
+        <v>0.9950186496772412</v>
       </c>
       <c r="M4">
-        <v>0.9281245728495288</v>
+        <v>1.000622199884228</v>
       </c>
       <c r="N4">
-        <v>0.9615101428471875</v>
+        <v>1.002527601268408</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9427903656873859</v>
+        <v>0.9766832814988874</v>
       </c>
       <c r="D5">
-        <v>1.036044144268622</v>
+        <v>1.03535824851031</v>
       </c>
       <c r="E5">
-        <v>0.9560690415334391</v>
+        <v>0.9857293666934511</v>
       </c>
       <c r="F5">
-        <v>0.9215856108074468</v>
+        <v>0.9920575149666618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046147517019716</v>
+        <v>1.051840036121567</v>
       </c>
       <c r="J5">
-        <v>0.9632810079103566</v>
+        <v>0.9962306203860116</v>
       </c>
       <c r="K5">
-        <v>1.045511975770478</v>
+        <v>1.044833482122012</v>
       </c>
       <c r="L5">
-        <v>0.9664895095536735</v>
+        <v>0.995774121842178</v>
       </c>
       <c r="M5">
-        <v>0.9324813718301872</v>
+        <v>1.002025720135243</v>
       </c>
       <c r="N5">
-        <v>0.9646489774314654</v>
+        <v>1.002780573788501</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9434116608724141</v>
+        <v>0.9768921611241419</v>
       </c>
       <c r="D6">
-        <v>1.036227356479634</v>
+        <v>1.035472502533975</v>
       </c>
       <c r="E6">
-        <v>0.9565928274241068</v>
+        <v>0.9858961285983882</v>
       </c>
       <c r="F6">
-        <v>0.9223610570965911</v>
+        <v>0.9923331372449524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046265163275676</v>
+        <v>1.051888674757764</v>
       </c>
       <c r="J6">
-        <v>0.9638005961918771</v>
+        <v>0.9963548074514028</v>
       </c>
       <c r="K6">
-        <v>1.045657257536702</v>
+        <v>1.044910512242693</v>
       </c>
       <c r="L6">
-        <v>0.9669663587828388</v>
+        <v>0.995900414882446</v>
       </c>
       <c r="M6">
-        <v>0.9332035191550099</v>
+        <v>1.002259936534416</v>
       </c>
       <c r="N6">
-        <v>0.9651693035879431</v>
+        <v>1.002822843864988</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9390943686500294</v>
+        <v>0.9754505951111149</v>
       </c>
       <c r="D7">
-        <v>1.03495667137334</v>
+        <v>1.034682539927514</v>
       </c>
       <c r="E7">
-        <v>0.9529540325001118</v>
+        <v>0.9847457615005057</v>
       </c>
       <c r="F7">
-        <v>0.9169710036355813</v>
+        <v>0.9904287609192804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045446270555475</v>
+        <v>1.051550768497634</v>
       </c>
       <c r="J7">
-        <v>0.9601889634338593</v>
+        <v>0.9954975000740023</v>
       </c>
       <c r="K7">
-        <v>1.04464787437247</v>
+        <v>1.044376782106473</v>
       </c>
       <c r="L7">
-        <v>0.9636522987263951</v>
+        <v>0.995028781681504</v>
       </c>
       <c r="M7">
-        <v>0.9281834305188694</v>
+        <v>1.000641050871338</v>
       </c>
       <c r="N7">
-        <v>0.9615525418971489</v>
+        <v>1.002530995321348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9197955779092797</v>
+        <v>0.9692892492794389</v>
       </c>
       <c r="D8">
-        <v>1.029351589354495</v>
+        <v>1.031270735392346</v>
       </c>
       <c r="E8">
-        <v>0.9367150264517371</v>
+        <v>0.9798426752579396</v>
       </c>
       <c r="F8">
-        <v>0.892821752430029</v>
+        <v>0.9822336404817714</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041755176380903</v>
+        <v>1.050050972462183</v>
       </c>
       <c r="J8">
-        <v>0.9440169705538599</v>
+        <v>0.9918274263049437</v>
       </c>
       <c r="K8">
-        <v>1.040148127359813</v>
+        <v>1.042043150969671</v>
       </c>
       <c r="L8">
-        <v>0.9488264214308456</v>
+        <v>0.9913027950929255</v>
       </c>
       <c r="M8">
-        <v>0.9056799751680412</v>
+        <v>0.9936597705571938</v>
       </c>
       <c r="N8">
-        <v>0.9453575829323062</v>
+        <v>1.001280556481413</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.879324209618748</v>
+        <v>0.9578727890894555</v>
       </c>
       <c r="D9">
-        <v>1.018066546537571</v>
+        <v>1.024823341147002</v>
       </c>
       <c r="E9">
-        <v>0.902811973977887</v>
+        <v>0.9708140185611168</v>
       </c>
       <c r="F9">
-        <v>0.8417379302131269</v>
+        <v>0.9668294134957245</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033962992944833</v>
+        <v>1.047065294219949</v>
       </c>
       <c r="J9">
-        <v>0.9099982525357775</v>
+        <v>0.9850061956249255</v>
       </c>
       <c r="K9">
-        <v>1.030873152612105</v>
+        <v>1.03752611778733</v>
       </c>
       <c r="L9">
-        <v>0.9177067517015566</v>
+        <v>0.9843990587457364</v>
       </c>
       <c r="M9">
-        <v>0.858053530889141</v>
+        <v>0.980484607615442</v>
       </c>
       <c r="N9">
-        <v>0.9112905544326368</v>
+        <v>0.9989527784866131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8451302000256562</v>
+        <v>0.9498364362609221</v>
       </c>
       <c r="D10">
-        <v>1.009117803685955</v>
+        <v>1.020210220102456</v>
       </c>
       <c r="E10">
-        <v>0.8743435800144592</v>
+        <v>0.9645006466128111</v>
       </c>
       <c r="F10">
-        <v>0.7978542463036408</v>
+        <v>0.9558308038370498</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027457384449528</v>
+        <v>1.04483013148601</v>
       </c>
       <c r="J10">
-        <v>0.8811934077029292</v>
+        <v>0.9801920729795794</v>
       </c>
       <c r="K10">
-        <v>1.023324361951523</v>
+        <v>1.034223915058492</v>
       </c>
       <c r="L10">
-        <v>0.8914242680919084</v>
+        <v>0.9795418632786516</v>
       </c>
       <c r="M10">
-        <v>0.8171712966804394</v>
+        <v>0.9710461265623654</v>
       </c>
       <c r="N10">
-        <v>0.882444803416164</v>
+        <v>0.9973077811730223</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.827312694411156</v>
+        <v>0.9462434764326123</v>
       </c>
       <c r="D11">
-        <v>1.004694828259795</v>
+        <v>1.018132495251285</v>
       </c>
       <c r="E11">
-        <v>0.8595796840848815</v>
+        <v>0.9616889567882992</v>
       </c>
       <c r="F11">
-        <v>0.7746103793315143</v>
+        <v>0.9508748195678145</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024132683067453</v>
+        <v>1.043800664149925</v>
       </c>
       <c r="J11">
-        <v>0.8661730119215304</v>
+        <v>0.978037158699541</v>
       </c>
       <c r="K11">
-        <v>1.019528746794194</v>
+        <v>1.032720373407104</v>
       </c>
       <c r="L11">
-        <v>0.8777439259634517</v>
+        <v>0.9773714282909751</v>
       </c>
       <c r="M11">
-        <v>0.795549811956162</v>
+        <v>0.9667866929827758</v>
       </c>
       <c r="N11">
-        <v>0.8674030769498922</v>
+        <v>0.9965710131564282</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8200142124530287</v>
+        <v>0.9448907382408185</v>
       </c>
       <c r="D12">
-        <v>1.002933662007629</v>
+        <v>1.017348166435727</v>
       </c>
       <c r="E12">
-        <v>0.8535467387501336</v>
+        <v>0.9606320945305854</v>
       </c>
       <c r="F12">
-        <v>0.7649957619443802</v>
+        <v>0.9490029182851578</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022787602697449</v>
+        <v>1.043408676335815</v>
       </c>
       <c r="J12">
-        <v>0.8600190646990266</v>
+        <v>0.9772254866284334</v>
       </c>
       <c r="K12">
-        <v>1.01800487268352</v>
+        <v>1.032150382902777</v>
       </c>
       <c r="L12">
-        <v>0.8721440844099698</v>
+        <v>0.9765544905858079</v>
       </c>
       <c r="M12">
-        <v>0.7866157508040637</v>
+        <v>0.9651770058468492</v>
       </c>
       <c r="N12">
-        <v>0.8612403904164647</v>
+        <v>0.9962934443577562</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8216164264200029</v>
+        <v>0.9451817462465354</v>
       </c>
       <c r="D13">
-        <v>1.003317706875702</v>
+        <v>1.017516985226588</v>
       </c>
       <c r="E13">
-        <v>0.8548703847891943</v>
+        <v>0.9608593725984889</v>
       </c>
       <c r="F13">
-        <v>0.7671115164977516</v>
+        <v>0.9494058850724045</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02308197689014</v>
+        <v>1.043493199160894</v>
       </c>
       <c r="J13">
-        <v>0.8613700711042664</v>
+        <v>0.977400113126192</v>
       </c>
       <c r="K13">
-        <v>1.018337798401272</v>
+        <v>1.032273176078988</v>
       </c>
       <c r="L13">
-        <v>0.8733731870773705</v>
+        <v>0.9767302234734847</v>
       </c>
       <c r="M13">
-        <v>0.7885812082419001</v>
+        <v>0.9655235634827062</v>
       </c>
       <c r="N13">
-        <v>0.862593315405763</v>
+        <v>0.9963531641165694</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8267252975307861</v>
+        <v>0.946132036007196</v>
       </c>
       <c r="D14">
-        <v>1.004551977735015</v>
+        <v>1.018067921950937</v>
       </c>
       <c r="E14">
-        <v>0.8590938184519176</v>
+        <v>0.9616018553689404</v>
       </c>
       <c r="F14">
-        <v>0.7738387284570122</v>
+        <v>0.9507207325816952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0240240428509</v>
+        <v>1.043768460178716</v>
       </c>
       <c r="J14">
-        <v>0.8656777515718479</v>
+        <v>0.9779702990281258</v>
       </c>
       <c r="K14">
-        <v>1.019405414872959</v>
+        <v>1.032673495265607</v>
       </c>
       <c r="L14">
-        <v>0.877293148248057</v>
+        <v>0.9773041229913088</v>
       </c>
       <c r="M14">
-        <v>0.7948325562918843</v>
+        <v>0.9666542075988346</v>
       </c>
       <c r="N14">
-        <v>0.8669071132737058</v>
+        <v>0.9965481501628475</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8297728888475331</v>
+        <v>0.9467150992825154</v>
       </c>
       <c r="D15">
-        <v>1.005295216620442</v>
+        <v>1.018405690442817</v>
       </c>
       <c r="E15">
-        <v>0.8616152415735736</v>
+        <v>0.9620576464372257</v>
       </c>
       <c r="F15">
-        <v>0.7778383431963442</v>
+        <v>0.9515266802465725</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02458840999365</v>
+        <v>1.043936775103683</v>
       </c>
       <c r="J15">
-        <v>0.8682472651956517</v>
+        <v>0.9783200988114847</v>
       </c>
       <c r="K15">
-        <v>1.020046582572517</v>
+        <v>1.0329186063345</v>
       </c>
       <c r="L15">
-        <v>0.8796320857878777</v>
+        <v>0.9776562779674868</v>
       </c>
       <c r="M15">
-        <v>0.7985506348584784</v>
+        <v>0.9673471335839839</v>
       </c>
       <c r="N15">
-        <v>0.8694802759015828</v>
+        <v>0.9966677636407545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8462335280426235</v>
+        <v>0.9500724089522689</v>
       </c>
       <c r="D16">
-        <v>1.009397298797062</v>
+        <v>1.020346378631708</v>
       </c>
       <c r="E16">
-        <v>0.8752594495687834</v>
+        <v>0.9646855430695798</v>
       </c>
       <c r="F16">
-        <v>0.7992839953507898</v>
+        <v>0.9561554765740153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027664988882397</v>
+        <v>1.044897127194128</v>
       </c>
       <c r="J16">
-        <v>0.8821233490317402</v>
+        <v>0.9803335492267394</v>
       </c>
       <c r="K16">
-        <v>1.02356274446758</v>
+        <v>1.0343221113742</v>
       </c>
       <c r="L16">
-        <v>0.892271810604828</v>
+        <v>0.9796844379478555</v>
       </c>
       <c r="M16">
-        <v>0.8185021623122388</v>
+        <v>0.9713250413248117</v>
       </c>
       <c r="N16">
-        <v>0.8833760653683276</v>
+        <v>0.9973561437875874</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8556382066074185</v>
+        <v>0.9521472817114469</v>
       </c>
       <c r="D17">
-        <v>1.01180543510451</v>
+        <v>1.021541893610507</v>
       </c>
       <c r="E17">
-        <v>0.8830737629793638</v>
+        <v>0.9663125631696174</v>
       </c>
       <c r="F17">
-        <v>0.8114303563286394</v>
+        <v>0.9590058683469469</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029441759570493</v>
+        <v>1.045482801610951</v>
       </c>
       <c r="J17">
-        <v>0.8900489966844282</v>
+        <v>0.9815772402294521</v>
       </c>
       <c r="K17">
-        <v>1.025609590783118</v>
+        <v>1.03518247146557</v>
       </c>
       <c r="L17">
-        <v>0.8994978308615252</v>
+        <v>0.9809382134719238</v>
       </c>
       <c r="M17">
-        <v>0.829812006754302</v>
+        <v>0.9737729926903195</v>
       </c>
       <c r="N17">
-        <v>0.891312968349767</v>
+        <v>0.9977812426188637</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.860853456954882</v>
+        <v>0.9533466839682679</v>
       </c>
       <c r="D18">
-        <v>1.013160346597758</v>
+        <v>1.02223151517644</v>
       </c>
       <c r="E18">
-        <v>0.8874128035116816</v>
+        <v>0.9672541095565956</v>
       </c>
       <c r="F18">
-        <v>0.8181364137380778</v>
+        <v>0.960649924261296</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030432122898648</v>
+        <v>1.045818493980343</v>
       </c>
       <c r="J18">
-        <v>0.8944430958192</v>
+        <v>0.9822959229665515</v>
       </c>
       <c r="K18">
-        <v>1.026755717181207</v>
+        <v>1.035677229039204</v>
       </c>
       <c r="L18">
-        <v>0.9035060661348038</v>
+        <v>0.9816630782080327</v>
       </c>
       <c r="M18">
-        <v>0.8360586417479887</v>
+        <v>0.9751843146251031</v>
       </c>
       <c r="N18">
-        <v>0.8957133076093203</v>
+        <v>0.9980268503721967</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8625903760622968</v>
+        <v>0.9537538444913488</v>
       </c>
       <c r="D19">
-        <v>1.013614625288866</v>
+        <v>1.022465366920033</v>
       </c>
       <c r="E19">
-        <v>0.888858793440216</v>
+        <v>0.9675739081363748</v>
       </c>
       <c r="F19">
-        <v>0.8203654490992581</v>
+        <v>0.9612074182008156</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0307626867328</v>
+        <v>1.045931961788499</v>
       </c>
       <c r="J19">
-        <v>0.8959063571963151</v>
+        <v>0.9825398511388498</v>
       </c>
       <c r="K19">
-        <v>1.027139113187545</v>
+        <v>1.035844741139119</v>
       </c>
       <c r="L19">
-        <v>0.9048411506933959</v>
+        <v>0.9819091643122261</v>
       </c>
       <c r="M19">
-        <v>0.8381353029538909</v>
+        <v>0.975662782566046</v>
       </c>
       <c r="N19">
-        <v>0.8971786469854293</v>
+        <v>0.9981102049477144</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8546582733312013</v>
+        <v>0.9519257963043863</v>
       </c>
       <c r="D20">
-        <v>1.011552388565949</v>
+        <v>1.021414426436061</v>
       </c>
       <c r="E20">
-        <v>0.8822589180823086</v>
+        <v>0.9661387769539205</v>
       </c>
       <c r="F20">
-        <v>0.8101680270209028</v>
+        <v>0.9587019783809125</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029256057207264</v>
+        <v>1.045420579140375</v>
       </c>
       <c r="J20">
-        <v>0.8892232727324131</v>
+        <v>0.9814445058721689</v>
       </c>
       <c r="K20">
-        <v>1.025395099879463</v>
+        <v>1.03509089792591</v>
       </c>
       <c r="L20">
-        <v>0.8987447774672868</v>
+        <v>0.9808043659238338</v>
       </c>
       <c r="M20">
-        <v>0.828636338036759</v>
+        <v>0.9735120713591179</v>
       </c>
       <c r="N20">
-        <v>0.8904860717750281</v>
+        <v>0.9977358776645712</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8252424506045853</v>
+        <v>0.9458527102294776</v>
       </c>
       <c r="D21">
-        <v>1.004192219033053</v>
+        <v>1.017906036177214</v>
       </c>
       <c r="E21">
-        <v>0.8578675301921314</v>
+        <v>0.9613835635462353</v>
       </c>
       <c r="F21">
-        <v>0.7718891011509559</v>
+        <v>0.9503344159649246</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02375008227198</v>
+        <v>1.04368767049621</v>
       </c>
       <c r="J21">
-        <v>0.8644274796459598</v>
+        <v>0.9778027094737336</v>
       </c>
       <c r="K21">
-        <v>1.019094601436238</v>
+        <v>1.032555932662283</v>
       </c>
       <c r="L21">
-        <v>0.8761552575432513</v>
+        <v>0.9771354258311451</v>
       </c>
       <c r="M21">
-        <v>0.7930205323534149</v>
+        <v>0.9663220352947596</v>
       </c>
       <c r="N21">
-        <v>0.8656550658182747</v>
+        <v>0.9964908411972005</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8024962989966897</v>
+        <v>0.9419286451050278</v>
       </c>
       <c r="D22">
-        <v>0.9988316251047116</v>
+        <v>1.015627159919543</v>
       </c>
       <c r="E22">
-        <v>0.8391026555295961</v>
+        <v>0.9583211649307132</v>
       </c>
       <c r="F22">
-        <v>0.7416567721130025</v>
+        <v>0.9448927635423173</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019604960932104</v>
+        <v>1.042542400746878</v>
       </c>
       <c r="J22">
-        <v>0.8452462323259067</v>
+        <v>0.9754475539961266</v>
       </c>
       <c r="K22">
-        <v>1.01442626331707</v>
+        <v>1.030895268840652</v>
       </c>
       <c r="L22">
-        <v>0.8587139750072892</v>
+        <v>0.9747661106821421</v>
       </c>
       <c r="M22">
-        <v>0.7649573678036101</v>
+        <v>0.9616410882571907</v>
       </c>
       <c r="N22">
-        <v>0.8464465789269077</v>
+        <v>0.9956853452634272</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8151009927892426</v>
+        <v>0.9440192949992355</v>
       </c>
       <c r="D23">
-        <v>1.001765134268454</v>
+        <v>1.016842340980234</v>
       </c>
       <c r="E23">
-        <v>0.8494904076220927</v>
+        <v>0.95995175536869</v>
       </c>
       <c r="F23">
-        <v>0.7584890403529844</v>
+        <v>0.947795313490699</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021888205730339</v>
+        <v>1.043154933218559</v>
       </c>
       <c r="J23">
-        <v>0.8558760229230764</v>
+        <v>0.9767025065275827</v>
       </c>
       <c r="K23">
-        <v>1.016989701602854</v>
+        <v>1.031782110585954</v>
       </c>
       <c r="L23">
-        <v>0.868375794074422</v>
+        <v>0.9760282833572785</v>
       </c>
       <c r="M23">
-        <v>0.7805732626070402</v>
+        <v>0.9641383260040739</v>
       </c>
       <c r="N23">
-        <v>0.8570914650459792</v>
+        <v>0.9961145848815287</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8551018842241956</v>
+        <v>0.9520259094276083</v>
       </c>
       <c r="D24">
-        <v>1.011666880779016</v>
+        <v>1.021472047129345</v>
       </c>
       <c r="E24">
-        <v>0.8826277765293027</v>
+        <v>0.9662173264833956</v>
       </c>
       <c r="F24">
-        <v>0.810739568420257</v>
+        <v>0.9588393502925637</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029340108133375</v>
+        <v>1.045448713070992</v>
       </c>
       <c r="J24">
-        <v>0.8895970769345727</v>
+        <v>0.9815045035978168</v>
       </c>
       <c r="K24">
-        <v>1.025492164506517</v>
+        <v>1.035132297901009</v>
       </c>
       <c r="L24">
-        <v>0.8990856775024326</v>
+        <v>0.9808648657280358</v>
       </c>
       <c r="M24">
-        <v>0.8291686349522205</v>
+        <v>0.9736300214296369</v>
       </c>
       <c r="N24">
-        <v>0.8908604068220308</v>
+        <v>0.9977563833656585</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8907758328239366</v>
+        <v>0.9608953391984623</v>
       </c>
       <c r="D25">
-        <v>1.021188690697318</v>
+        <v>1.026543907418478</v>
       </c>
       <c r="E25">
-        <v>0.912383190838037</v>
+        <v>0.9731974430635092</v>
       </c>
       <c r="F25">
-        <v>0.8562689863557168</v>
+        <v>0.9709338724321677</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036165088451999</v>
+        <v>1.047879176165335</v>
       </c>
       <c r="J25">
-        <v>0.9196347731827754</v>
+        <v>0.9868144076583042</v>
       </c>
       <c r="K25">
-        <v>1.033466748820796</v>
+        <v>1.038743678148425</v>
       </c>
       <c r="L25">
-        <v>0.9265131598471475</v>
+        <v>0.9862265902681399</v>
       </c>
       <c r="M25">
-        <v>0.8716006069208396</v>
+        <v>0.9840008086046169</v>
       </c>
       <c r="N25">
-        <v>0.9209407600442778</v>
+        <v>0.9995702354105968</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9676667829503529</v>
+        <v>1.008075152743659</v>
       </c>
       <c r="D2">
-        <v>1.030363601712708</v>
+        <v>1.028374011839279</v>
       </c>
       <c r="E2">
-        <v>0.9785551564445871</v>
+        <v>1.010687419312362</v>
       </c>
       <c r="F2">
-        <v>0.9800612460334286</v>
+        <v>1.022662078082575</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049642072823448</v>
+        <v>1.030497932126107</v>
       </c>
       <c r="J2">
-        <v>0.9908595402431681</v>
+        <v>1.013343089779908</v>
       </c>
       <c r="K2">
-        <v>1.041415529614302</v>
+        <v>1.031191015190591</v>
       </c>
       <c r="L2">
-        <v>0.990321563602198</v>
+        <v>1.0135568571881</v>
       </c>
       <c r="M2">
-        <v>0.9918055304013139</v>
+        <v>1.025495799515954</v>
       </c>
       <c r="N2">
-        <v>1.000950528190593</v>
+        <v>1.008593558734579</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9724242370721397</v>
+        <v>1.009066242985069</v>
       </c>
       <c r="D3">
-        <v>1.033013573475086</v>
+        <v>1.028823185320063</v>
       </c>
       <c r="E3">
-        <v>0.9823347024148528</v>
+        <v>1.011528180645183</v>
       </c>
       <c r="F3">
-        <v>0.9864144807142735</v>
+        <v>1.023932323243426</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050824961121203</v>
+        <v>1.03059556605843</v>
       </c>
       <c r="J3">
-        <v>0.9936959556889124</v>
+        <v>1.013965721747002</v>
       </c>
       <c r="K3">
-        <v>1.043240770953603</v>
+        <v>1.031449079130273</v>
       </c>
       <c r="L3">
-        <v>0.9931987178601811</v>
+        <v>1.014201645205447</v>
       </c>
       <c r="M3">
-        <v>0.9972241936103335</v>
+        <v>1.026571493132391</v>
       </c>
       <c r="N3">
-        <v>1.001917390717098</v>
+        <v>1.008802624249196</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9754338388006105</v>
+        <v>1.009707708500172</v>
       </c>
       <c r="D4">
-        <v>1.034673337993165</v>
+        <v>1.029111076978838</v>
       </c>
       <c r="E4">
-        <v>0.9847323972178655</v>
+        <v>1.012072743032263</v>
       </c>
       <c r="F4">
-        <v>0.9904065951078588</v>
+        <v>1.024750946688625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051546810406158</v>
+        <v>1.030655357900006</v>
       </c>
       <c r="J4">
-        <v>0.9954875317393187</v>
+        <v>1.014368234242181</v>
       </c>
       <c r="K4">
-        <v>1.044370549440482</v>
+        <v>1.031612588806549</v>
       </c>
       <c r="L4">
-        <v>0.9950186496772412</v>
+        <v>1.014618762380534</v>
       </c>
       <c r="M4">
-        <v>1.000622199884228</v>
+        <v>1.027263695956164</v>
       </c>
       <c r="N4">
-        <v>1.002527601268408</v>
+        <v>1.008937680483503</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9766832814988874</v>
+        <v>1.009977419908773</v>
       </c>
       <c r="D5">
-        <v>1.03535824851031</v>
+        <v>1.029231444902873</v>
       </c>
       <c r="E5">
-        <v>0.9857293666934511</v>
+        <v>1.012301804239871</v>
       </c>
       <c r="F5">
-        <v>0.9920575149666618</v>
+        <v>1.025094303997144</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051840036121567</v>
+        <v>1.030679682762889</v>
       </c>
       <c r="J5">
-        <v>0.9962306203860116</v>
+        <v>1.014537361210864</v>
       </c>
       <c r="K5">
-        <v>1.044833482122012</v>
+        <v>1.031680494244084</v>
       </c>
       <c r="L5">
-        <v>0.995774121842178</v>
+        <v>1.014794093258957</v>
       </c>
       <c r="M5">
-        <v>1.002025720135243</v>
+        <v>1.027553777807771</v>
       </c>
       <c r="N5">
-        <v>1.002780573788501</v>
+        <v>1.008994404577092</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9768921611241419</v>
+        <v>1.010022707948034</v>
       </c>
       <c r="D6">
-        <v>1.035472502533975</v>
+        <v>1.029251616328428</v>
       </c>
       <c r="E6">
-        <v>0.9858961285983882</v>
+        <v>1.012340272065855</v>
       </c>
       <c r="F6">
-        <v>0.9923331372449524</v>
+        <v>1.025151908768942</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051888674757764</v>
+        <v>1.03068371937468</v>
       </c>
       <c r="J6">
-        <v>0.9963548074514028</v>
+        <v>1.014565753130685</v>
       </c>
       <c r="K6">
-        <v>1.044910512242693</v>
+        <v>1.031691846894798</v>
       </c>
       <c r="L6">
-        <v>0.995900414882446</v>
+        <v>1.014823530598245</v>
       </c>
       <c r="M6">
-        <v>1.002259936534416</v>
+        <v>1.027602429856731</v>
       </c>
       <c r="N6">
-        <v>1.002822843864988</v>
+        <v>1.009003925658117</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9754505951111149</v>
+        <v>1.009711312242725</v>
       </c>
       <c r="D7">
-        <v>1.034682539927514</v>
+        <v>1.029112687944387</v>
       </c>
       <c r="E7">
-        <v>0.9847457615005057</v>
+        <v>1.012075803260358</v>
       </c>
       <c r="F7">
-        <v>0.9904287609192804</v>
+        <v>1.024755537757599</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051550768497634</v>
+        <v>1.030655686121202</v>
       </c>
       <c r="J7">
-        <v>0.9954975000740023</v>
+        <v>1.014370494476182</v>
       </c>
       <c r="K7">
-        <v>1.044376782106473</v>
+        <v>1.031613499442317</v>
       </c>
       <c r="L7">
-        <v>0.995028781681504</v>
+        <v>1.014621105259736</v>
       </c>
       <c r="M7">
-        <v>1.000641050871338</v>
+        <v>1.027267575660579</v>
       </c>
       <c r="N7">
-        <v>1.002530995321348</v>
+        <v>1.008938438644204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9692892492794389</v>
+        <v>1.008410062454691</v>
       </c>
       <c r="D8">
-        <v>1.031270735392346</v>
+        <v>1.02852638079061</v>
       </c>
       <c r="E8">
-        <v>0.9798426752579396</v>
+        <v>1.010971447726031</v>
       </c>
       <c r="F8">
-        <v>0.9822336404817714</v>
+        <v>1.023092049068479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050050972462183</v>
+        <v>1.030531627714169</v>
       </c>
       <c r="J8">
-        <v>0.9918274263049437</v>
+        <v>1.013553588069444</v>
       </c>
       <c r="K8">
-        <v>1.042043150969671</v>
+        <v>1.031278947365684</v>
       </c>
       <c r="L8">
-        <v>0.9913027950929255</v>
+        <v>1.013774787610294</v>
       </c>
       <c r="M8">
-        <v>0.9936597705571938</v>
+        <v>1.025860130797662</v>
       </c>
       <c r="N8">
-        <v>1.001280556481413</v>
+        <v>1.008664259529617</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9578727890894555</v>
+        <v>1.006118344307147</v>
       </c>
       <c r="D9">
-        <v>1.024823341147002</v>
+        <v>1.027472250161201</v>
       </c>
       <c r="E9">
-        <v>0.9708140185611168</v>
+        <v>1.009029542544614</v>
       </c>
       <c r="F9">
-        <v>0.9668294134957245</v>
+        <v>1.020135391487081</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047065294219949</v>
+        <v>1.030287169581864</v>
       </c>
       <c r="J9">
-        <v>0.9850061956249255</v>
+        <v>1.012111254022426</v>
       </c>
       <c r="K9">
-        <v>1.03752611778733</v>
+        <v>1.030662899831217</v>
       </c>
       <c r="L9">
-        <v>0.9843990587457364</v>
+        <v>1.012282686675195</v>
       </c>
       <c r="M9">
-        <v>0.980484607615442</v>
+        <v>1.02335060527296</v>
       </c>
       <c r="N9">
-        <v>0.9989527784866131</v>
+        <v>1.008179417263183</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9498364362609221</v>
+        <v>1.004591362254832</v>
       </c>
       <c r="D10">
-        <v>1.020210220102456</v>
+        <v>1.026755527626665</v>
       </c>
       <c r="E10">
-        <v>0.9645006466128111</v>
+        <v>1.007737731780969</v>
       </c>
       <c r="F10">
-        <v>0.9558308038370498</v>
+        <v>1.018147174587711</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04483013148601</v>
+        <v>1.030106899902852</v>
       </c>
       <c r="J10">
-        <v>0.9801920729795794</v>
+        <v>1.011147796748991</v>
       </c>
       <c r="K10">
-        <v>1.034223915058492</v>
+        <v>1.030234484062072</v>
       </c>
       <c r="L10">
-        <v>0.9795418632786516</v>
+        <v>1.011287443360672</v>
       </c>
       <c r="M10">
-        <v>0.9710461265623654</v>
+        <v>1.021657795829191</v>
       </c>
       <c r="N10">
-        <v>0.9973077811730223</v>
+        <v>1.007855049779483</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9462434764326123</v>
+        <v>1.003930355491933</v>
       </c>
       <c r="D11">
-        <v>1.018132495251285</v>
+        <v>1.026441893307249</v>
       </c>
       <c r="E11">
-        <v>0.9616889567882992</v>
+        <v>1.007179031082851</v>
       </c>
       <c r="F11">
-        <v>0.9508748195678145</v>
+        <v>1.017282181509308</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043800664149925</v>
+        <v>1.030024754799628</v>
       </c>
       <c r="J11">
-        <v>0.978037158699541</v>
+        <v>1.010730159018035</v>
       </c>
       <c r="K11">
-        <v>1.032720373407104</v>
+        <v>1.030044795824873</v>
       </c>
       <c r="L11">
-        <v>0.9773714282909751</v>
+        <v>1.010856373672895</v>
       </c>
       <c r="M11">
-        <v>0.9667866929827758</v>
+        <v>1.020920090980698</v>
       </c>
       <c r="N11">
-        <v>0.9965710131564282</v>
+        <v>1.007714325819567</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9448907382408185</v>
+        <v>1.003684855744885</v>
       </c>
       <c r="D12">
-        <v>1.017348166435727</v>
+        <v>1.026324903551513</v>
       </c>
       <c r="E12">
-        <v>0.9606320945305854</v>
+        <v>1.006971604542183</v>
       </c>
       <c r="F12">
-        <v>0.9490029182851578</v>
+        <v>1.016960269692132</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043408676335815</v>
+        <v>1.029993629606143</v>
       </c>
       <c r="J12">
-        <v>0.9772254866284334</v>
+        <v>1.010574961470965</v>
       </c>
       <c r="K12">
-        <v>1.032150382902777</v>
+        <v>1.029973710656089</v>
       </c>
       <c r="L12">
-        <v>0.9765544905858079</v>
+        <v>1.010696236861647</v>
       </c>
       <c r="M12">
-        <v>0.9651770058468492</v>
+        <v>1.020645366552564</v>
       </c>
       <c r="N12">
-        <v>0.9962934443577562</v>
+        <v>1.007662014048544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9451817462465354</v>
+        <v>1.003737515032252</v>
       </c>
       <c r="D13">
-        <v>1.017516985226588</v>
+        <v>1.026350020482722</v>
       </c>
       <c r="E13">
-        <v>0.9608593725984889</v>
+        <v>1.007016093719059</v>
       </c>
       <c r="F13">
-        <v>0.9494058850724045</v>
+        <v>1.017029348720555</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043493199160894</v>
+        <v>1.030000333779533</v>
       </c>
       <c r="J13">
-        <v>0.977400113126192</v>
+        <v>1.010608254962992</v>
       </c>
       <c r="K13">
-        <v>1.032273176078988</v>
+        <v>1.029988986990607</v>
       </c>
       <c r="L13">
-        <v>0.9767302234734847</v>
+        <v>1.010730587579397</v>
       </c>
       <c r="M13">
-        <v>0.9655235634827062</v>
+        <v>1.020704327927282</v>
       </c>
       <c r="N13">
-        <v>0.9963531641165694</v>
+        <v>1.007673236938809</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.946132036007196</v>
+        <v>1.003910061845842</v>
       </c>
       <c r="D14">
-        <v>1.018067921950937</v>
+        <v>1.026432232922478</v>
       </c>
       <c r="E14">
-        <v>0.9616018553689404</v>
+        <v>1.007161883103043</v>
       </c>
       <c r="F14">
-        <v>0.9507207325816952</v>
+        <v>1.017255584730899</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043768460178716</v>
+        <v>1.030022194476502</v>
       </c>
       <c r="J14">
-        <v>0.9779702990281258</v>
+        <v>1.010717331733902</v>
       </c>
       <c r="K14">
-        <v>1.032673495265607</v>
+        <v>1.030038932673754</v>
       </c>
       <c r="L14">
-        <v>0.9773041229913088</v>
+        <v>1.010843137087593</v>
       </c>
       <c r="M14">
-        <v>0.9666542075988346</v>
+        <v>1.020897396621752</v>
       </c>
       <c r="N14">
-        <v>0.9965481501628475</v>
+        <v>1.007710002540797</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9467150992825154</v>
+        <v>1.004016377276115</v>
       </c>
       <c r="D15">
-        <v>1.018405690442817</v>
+        <v>1.026482821585771</v>
       </c>
       <c r="E15">
-        <v>0.9620576464372257</v>
+        <v>1.007251721985019</v>
       </c>
       <c r="F15">
-        <v>0.9515266802465725</v>
+        <v>1.017394894677476</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043936775103683</v>
+        <v>1.03003558240062</v>
       </c>
       <c r="J15">
-        <v>0.9783200988114847</v>
+        <v>1.010784528480953</v>
       </c>
       <c r="K15">
-        <v>1.0329186063345</v>
+        <v>1.03006962288813</v>
       </c>
       <c r="L15">
-        <v>0.9776562779674868</v>
+        <v>1.010912480127514</v>
       </c>
       <c r="M15">
-        <v>0.9673471335839839</v>
+        <v>1.021016258773905</v>
       </c>
       <c r="N15">
-        <v>0.9966677636407545</v>
+        <v>1.007732649659373</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9500724089522689</v>
+        <v>1.004635234990551</v>
       </c>
       <c r="D16">
-        <v>1.020346378631708</v>
+        <v>1.026776273393788</v>
       </c>
       <c r="E16">
-        <v>0.9646855430695798</v>
+        <v>1.007774824880294</v>
       </c>
       <c r="F16">
-        <v>0.9561554765740153</v>
+        <v>1.018204495191791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044897127194128</v>
+        <v>1.030112265595209</v>
       </c>
       <c r="J16">
-        <v>0.9803335492267394</v>
+        <v>1.011175504414058</v>
       </c>
       <c r="K16">
-        <v>1.0343221113742</v>
+        <v>1.03024698509493</v>
       </c>
       <c r="L16">
-        <v>0.9796844379478555</v>
+        <v>1.011316049459196</v>
       </c>
       <c r="M16">
-        <v>0.9713250413248117</v>
+        <v>1.02170665562929</v>
       </c>
       <c r="N16">
-        <v>0.9973561437875874</v>
+        <v>1.007864383465707</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9521472817114469</v>
+        <v>1.005023477728558</v>
       </c>
       <c r="D17">
-        <v>1.021541893610507</v>
+        <v>1.026959468972069</v>
       </c>
       <c r="E17">
-        <v>0.9663125631696174</v>
+        <v>1.008103130952846</v>
       </c>
       <c r="F17">
-        <v>0.9590058683469469</v>
+        <v>1.018711242233537</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045482801610951</v>
+        <v>1.030159273558201</v>
       </c>
       <c r="J17">
-        <v>0.9815772402294521</v>
+        <v>1.01142063161988</v>
       </c>
       <c r="K17">
-        <v>1.03518247146557</v>
+        <v>1.030357121465034</v>
       </c>
       <c r="L17">
-        <v>0.9809382134719238</v>
+        <v>1.011569165052211</v>
       </c>
       <c r="M17">
-        <v>0.9737729926903195</v>
+        <v>1.022138462555479</v>
       </c>
       <c r="N17">
-        <v>0.9977812426188637</v>
+        <v>1.007946944160334</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9533466839682679</v>
+        <v>1.005249951177237</v>
       </c>
       <c r="D18">
-        <v>1.02223151517644</v>
+        <v>1.027066006402557</v>
       </c>
       <c r="E18">
-        <v>0.9672541095565956</v>
+        <v>1.008294690171396</v>
       </c>
       <c r="F18">
-        <v>0.960649924261296</v>
+        <v>1.019006425463499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045818493980343</v>
+        <v>1.030186298079939</v>
       </c>
       <c r="J18">
-        <v>0.9822959229665515</v>
+        <v>1.011563566334414</v>
       </c>
       <c r="K18">
-        <v>1.035677229039204</v>
+        <v>1.030420958594083</v>
       </c>
       <c r="L18">
-        <v>0.9816630782080327</v>
+        <v>1.011716791243675</v>
       </c>
       <c r="M18">
-        <v>0.9751843146251031</v>
+        <v>1.022389874112876</v>
       </c>
       <c r="N18">
-        <v>0.9980268503721967</v>
+        <v>1.007995074295579</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9537538444913488</v>
+        <v>1.005327175841419</v>
       </c>
       <c r="D19">
-        <v>1.022465366920033</v>
+        <v>1.027102279003287</v>
       </c>
       <c r="E19">
-        <v>0.9675739081363748</v>
+        <v>1.008360017732753</v>
       </c>
       <c r="F19">
-        <v>0.9612074182008156</v>
+        <v>1.019107008577743</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045931961788499</v>
+        <v>1.030195445804343</v>
       </c>
       <c r="J19">
-        <v>0.9825398511388498</v>
+        <v>1.011612295943544</v>
       </c>
       <c r="K19">
-        <v>1.035844741139119</v>
+        <v>1.030442656903313</v>
       </c>
       <c r="L19">
-        <v>0.9819091643122261</v>
+        <v>1.011767125946243</v>
       </c>
       <c r="M19">
-        <v>0.975662782566046</v>
+        <v>1.022475521953818</v>
       </c>
       <c r="N19">
-        <v>0.9981102049477144</v>
+        <v>1.008011480995928</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9519257963043863</v>
+        <v>1.004981821095209</v>
       </c>
       <c r="D20">
-        <v>1.021414426436061</v>
+        <v>1.026939846640301</v>
       </c>
       <c r="E20">
-        <v>0.9661387769539205</v>
+        <v>1.008067900212379</v>
       </c>
       <c r="F20">
-        <v>0.9587019783809125</v>
+        <v>1.018656913809377</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045420579140375</v>
+        <v>1.030154270837246</v>
       </c>
       <c r="J20">
-        <v>0.9814445058721689</v>
+        <v>1.011394336324931</v>
       </c>
       <c r="K20">
-        <v>1.03509089792591</v>
+        <v>1.030345346603613</v>
       </c>
       <c r="L20">
-        <v>0.9808043659238338</v>
+        <v>1.011542009369465</v>
       </c>
       <c r="M20">
-        <v>0.9735120713591179</v>
+        <v>1.022092180735281</v>
       </c>
       <c r="N20">
-        <v>0.9977358776645712</v>
+        <v>1.007938088880608</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9458527102294776</v>
+        <v>1.003859250351586</v>
       </c>
       <c r="D21">
-        <v>1.017906036177214</v>
+        <v>1.026408036973385</v>
       </c>
       <c r="E21">
-        <v>0.9613835635462353</v>
+        <v>1.007118949006285</v>
       </c>
       <c r="F21">
-        <v>0.9503344159649246</v>
+        <v>1.017188980851429</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04368767049621</v>
+        <v>1.030015773954213</v>
       </c>
       <c r="J21">
-        <v>0.9778027094737336</v>
+        <v>1.010685213229255</v>
       </c>
       <c r="K21">
-        <v>1.032555932662283</v>
+        <v>1.030024242196463</v>
       </c>
       <c r="L21">
-        <v>0.9771354258311451</v>
+        <v>1.01080999456801</v>
       </c>
       <c r="M21">
-        <v>0.9663220352947596</v>
+        <v>1.020840562254509</v>
       </c>
       <c r="N21">
-        <v>0.9964908411972005</v>
+        <v>1.007699177108544</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9419286451050278</v>
+        <v>1.00315360501026</v>
       </c>
       <c r="D22">
-        <v>1.015627159919543</v>
+        <v>1.026070821521077</v>
       </c>
       <c r="E22">
-        <v>0.9583211649307132</v>
+        <v>1.006522883139697</v>
       </c>
       <c r="F22">
-        <v>0.9448927635423173</v>
+        <v>1.016262474809301</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042542400746878</v>
+        <v>1.029925150295622</v>
       </c>
       <c r="J22">
-        <v>0.9754475539961266</v>
+        <v>1.010238964212224</v>
       </c>
       <c r="K22">
-        <v>1.030895268840652</v>
+        <v>1.029818727095951</v>
       </c>
       <c r="L22">
-        <v>0.9747661106821421</v>
+        <v>1.0103496417668</v>
       </c>
       <c r="M22">
-        <v>0.9616410882571907</v>
+        <v>1.020049523299537</v>
       </c>
       <c r="N22">
-        <v>0.9956853452634272</v>
+        <v>1.007548728759573</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9440192949992355</v>
+        <v>1.003527665990984</v>
       </c>
       <c r="D23">
-        <v>1.016842340980234</v>
+        <v>1.026249854864848</v>
       </c>
       <c r="E23">
-        <v>0.95995175536869</v>
+        <v>1.006838814093312</v>
       </c>
       <c r="F23">
-        <v>0.947795313490699</v>
+        <v>1.016753971038632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043154933218559</v>
+        <v>1.029973527264826</v>
       </c>
       <c r="J23">
-        <v>0.9767025065275827</v>
+        <v>1.010475566733607</v>
       </c>
       <c r="K23">
-        <v>1.031782110585954</v>
+        <v>1.029928017506868</v>
       </c>
       <c r="L23">
-        <v>0.9760282833572785</v>
+        <v>1.010593693516067</v>
       </c>
       <c r="M23">
-        <v>0.9641383260040739</v>
+        <v>1.020469256632238</v>
       </c>
       <c r="N23">
-        <v>0.9961145848815287</v>
+        <v>1.007628506541719</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9520259094276083</v>
+        <v>1.005000643878735</v>
       </c>
       <c r="D24">
-        <v>1.021472047129345</v>
+        <v>1.026948714108358</v>
       </c>
       <c r="E24">
-        <v>0.9662173264833956</v>
+        <v>1.008083819270126</v>
       </c>
       <c r="F24">
-        <v>0.9588393502925637</v>
+        <v>1.018681463701221</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045448713070992</v>
+        <v>1.030156532570217</v>
       </c>
       <c r="J24">
-        <v>0.9815045035978168</v>
+        <v>1.011406218172111</v>
       </c>
       <c r="K24">
-        <v>1.035132297901009</v>
+        <v>1.030350668403599</v>
       </c>
       <c r="L24">
-        <v>0.9808648657280358</v>
+        <v>1.011554279890064</v>
       </c>
       <c r="M24">
-        <v>0.9736300214296369</v>
+        <v>1.022113094899857</v>
       </c>
       <c r="N24">
-        <v>0.9977563833656585</v>
+        <v>1.007942090281002</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9608953391984623</v>
+        <v>1.00671066125412</v>
       </c>
       <c r="D25">
-        <v>1.026543907418478</v>
+        <v>1.027747240151959</v>
       </c>
       <c r="E25">
-        <v>0.9731974430635092</v>
+        <v>1.00953108142368</v>
       </c>
       <c r="F25">
-        <v>0.9709338724321677</v>
+        <v>1.020902770449074</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047879176165335</v>
+        <v>1.030353422593306</v>
       </c>
       <c r="J25">
-        <v>0.9868144076583042</v>
+        <v>1.012484467622265</v>
       </c>
       <c r="K25">
-        <v>1.038743678148425</v>
+        <v>1.030825293903405</v>
       </c>
       <c r="L25">
-        <v>0.9862265902681399</v>
+        <v>1.01266852141279</v>
       </c>
       <c r="M25">
-        <v>0.9840008086046169</v>
+        <v>1.02400286545531</v>
       </c>
       <c r="N25">
-        <v>0.9995702354105968</v>
+        <v>1.008304961848062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008075152743659</v>
+        <v>0.9676667829503521</v>
       </c>
       <c r="D2">
-        <v>1.028374011839279</v>
+        <v>1.030363601712708</v>
       </c>
       <c r="E2">
-        <v>1.010687419312362</v>
+        <v>0.9785551564445865</v>
       </c>
       <c r="F2">
-        <v>1.022662078082575</v>
+        <v>0.980061246033428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030497932126107</v>
+        <v>1.049642072823448</v>
       </c>
       <c r="J2">
-        <v>1.013343089779908</v>
+        <v>0.9908595402431676</v>
       </c>
       <c r="K2">
-        <v>1.031191015190591</v>
+        <v>1.041415529614302</v>
       </c>
       <c r="L2">
-        <v>1.0135568571881</v>
+        <v>0.9903215636021973</v>
       </c>
       <c r="M2">
-        <v>1.025495799515954</v>
+        <v>0.9918055304013134</v>
       </c>
       <c r="N2">
-        <v>1.008593558734579</v>
+        <v>1.000950528190592</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009066242985069</v>
+        <v>0.9724242370721389</v>
       </c>
       <c r="D3">
-        <v>1.028823185320063</v>
+        <v>1.033013573475086</v>
       </c>
       <c r="E3">
-        <v>1.011528180645183</v>
+        <v>0.9823347024148522</v>
       </c>
       <c r="F3">
-        <v>1.023932323243426</v>
+        <v>0.9864144807142728</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03059556605843</v>
+        <v>1.050824961121202</v>
       </c>
       <c r="J3">
-        <v>1.013965721747002</v>
+        <v>0.993695955688912</v>
       </c>
       <c r="K3">
-        <v>1.031449079130273</v>
+        <v>1.043240770953603</v>
       </c>
       <c r="L3">
-        <v>1.014201645205447</v>
+        <v>0.9931987178601807</v>
       </c>
       <c r="M3">
-        <v>1.026571493132391</v>
+        <v>0.997224193610333</v>
       </c>
       <c r="N3">
-        <v>1.008802624249196</v>
+        <v>1.001917390717098</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009707708500172</v>
+        <v>0.9754338388006105</v>
       </c>
       <c r="D4">
-        <v>1.029111076978838</v>
+        <v>1.034673337993165</v>
       </c>
       <c r="E4">
-        <v>1.012072743032263</v>
+        <v>0.9847323972178653</v>
       </c>
       <c r="F4">
-        <v>1.024750946688625</v>
+        <v>0.9904065951078593</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030655357900006</v>
+        <v>1.051546810406158</v>
       </c>
       <c r="J4">
-        <v>1.014368234242181</v>
+        <v>0.9954875317393188</v>
       </c>
       <c r="K4">
-        <v>1.031612588806549</v>
+        <v>1.044370549440482</v>
       </c>
       <c r="L4">
-        <v>1.014618762380534</v>
+        <v>0.9950186496772412</v>
       </c>
       <c r="M4">
-        <v>1.027263695956164</v>
+        <v>1.000622199884228</v>
       </c>
       <c r="N4">
-        <v>1.008937680483503</v>
+        <v>1.002527601268408</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009977419908773</v>
+        <v>0.9766832814988874</v>
       </c>
       <c r="D5">
-        <v>1.029231444902873</v>
+        <v>1.03535824851031</v>
       </c>
       <c r="E5">
-        <v>1.012301804239871</v>
+        <v>0.9857293666934512</v>
       </c>
       <c r="F5">
-        <v>1.025094303997144</v>
+        <v>0.9920575149666616</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030679682762889</v>
+        <v>1.051840036121567</v>
       </c>
       <c r="J5">
-        <v>1.014537361210864</v>
+        <v>0.9962306203860116</v>
       </c>
       <c r="K5">
-        <v>1.031680494244084</v>
+        <v>1.044833482122012</v>
       </c>
       <c r="L5">
-        <v>1.014794093258957</v>
+        <v>0.995774121842178</v>
       </c>
       <c r="M5">
-        <v>1.027553777807771</v>
+        <v>1.002025720135243</v>
       </c>
       <c r="N5">
-        <v>1.008994404577092</v>
+        <v>1.002780573788501</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010022707948034</v>
+        <v>0.9768921611241413</v>
       </c>
       <c r="D6">
-        <v>1.029251616328428</v>
+        <v>1.035472502533974</v>
       </c>
       <c r="E6">
-        <v>1.012340272065855</v>
+        <v>0.9858961285983877</v>
       </c>
       <c r="F6">
-        <v>1.025151908768942</v>
+        <v>0.9923331372449521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03068371937468</v>
+        <v>1.051888674757764</v>
       </c>
       <c r="J6">
-        <v>1.014565753130685</v>
+        <v>0.9963548074514024</v>
       </c>
       <c r="K6">
-        <v>1.031691846894798</v>
+        <v>1.044910512242693</v>
       </c>
       <c r="L6">
-        <v>1.014823530598245</v>
+        <v>0.9959004148824454</v>
       </c>
       <c r="M6">
-        <v>1.027602429856731</v>
+        <v>1.002259936534416</v>
       </c>
       <c r="N6">
-        <v>1.009003925658117</v>
+        <v>1.002822843864987</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009711312242725</v>
+        <v>0.9754505951111146</v>
       </c>
       <c r="D7">
-        <v>1.029112687944387</v>
+        <v>1.034682539927515</v>
       </c>
       <c r="E7">
-        <v>1.012075803260358</v>
+        <v>0.9847457615005053</v>
       </c>
       <c r="F7">
-        <v>1.024755537757599</v>
+        <v>0.9904287609192807</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030655686121202</v>
+        <v>1.051550768497635</v>
       </c>
       <c r="J7">
-        <v>1.014370494476182</v>
+        <v>0.9954975000740021</v>
       </c>
       <c r="K7">
-        <v>1.031613499442317</v>
+        <v>1.044376782106474</v>
       </c>
       <c r="L7">
-        <v>1.014621105259736</v>
+        <v>0.9950287816815037</v>
       </c>
       <c r="M7">
-        <v>1.027267575660579</v>
+        <v>1.000641050871338</v>
       </c>
       <c r="N7">
-        <v>1.008938438644204</v>
+        <v>1.002530995321348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008410062454691</v>
+        <v>0.9692892492794383</v>
       </c>
       <c r="D8">
-        <v>1.02852638079061</v>
+        <v>1.031270735392346</v>
       </c>
       <c r="E8">
-        <v>1.010971447726031</v>
+        <v>0.9798426752579386</v>
       </c>
       <c r="F8">
-        <v>1.023092049068479</v>
+        <v>0.982233640481771</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030531627714169</v>
+        <v>1.050050972462184</v>
       </c>
       <c r="J8">
-        <v>1.013553588069444</v>
+        <v>0.9918274263049431</v>
       </c>
       <c r="K8">
-        <v>1.031278947365684</v>
+        <v>1.042043150969672</v>
       </c>
       <c r="L8">
-        <v>1.013774787610294</v>
+        <v>0.9913027950929245</v>
       </c>
       <c r="M8">
-        <v>1.025860130797662</v>
+        <v>0.9936597705571931</v>
       </c>
       <c r="N8">
-        <v>1.008664259529617</v>
+        <v>1.001280556481413</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006118344307147</v>
+        <v>0.9578727890894557</v>
       </c>
       <c r="D9">
-        <v>1.027472250161201</v>
+        <v>1.024823341147002</v>
       </c>
       <c r="E9">
-        <v>1.009029542544614</v>
+        <v>0.9708140185611169</v>
       </c>
       <c r="F9">
-        <v>1.020135391487081</v>
+        <v>0.9668294134957252</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030287169581864</v>
+        <v>1.047065294219948</v>
       </c>
       <c r="J9">
-        <v>1.012111254022426</v>
+        <v>0.9850061956249256</v>
       </c>
       <c r="K9">
-        <v>1.030662899831217</v>
+        <v>1.03752611778733</v>
       </c>
       <c r="L9">
-        <v>1.012282686675195</v>
+        <v>0.9843990587457365</v>
       </c>
       <c r="M9">
-        <v>1.02335060527296</v>
+        <v>0.9804846076154426</v>
       </c>
       <c r="N9">
-        <v>1.008179417263183</v>
+        <v>0.998952778486613</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004591362254832</v>
+        <v>0.949836436260922</v>
       </c>
       <c r="D10">
-        <v>1.026755527626665</v>
+        <v>1.020210220102456</v>
       </c>
       <c r="E10">
-        <v>1.007737731780969</v>
+        <v>0.9645006466128109</v>
       </c>
       <c r="F10">
-        <v>1.018147174587711</v>
+        <v>0.9558308038370498</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030106899902852</v>
+        <v>1.04483013148601</v>
       </c>
       <c r="J10">
-        <v>1.011147796748991</v>
+        <v>0.9801920729795792</v>
       </c>
       <c r="K10">
-        <v>1.030234484062072</v>
+        <v>1.034223915058492</v>
       </c>
       <c r="L10">
-        <v>1.011287443360672</v>
+        <v>0.9795418632786512</v>
       </c>
       <c r="M10">
-        <v>1.021657795829191</v>
+        <v>0.9710461265623654</v>
       </c>
       <c r="N10">
-        <v>1.007855049779483</v>
+        <v>0.9973077811730222</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003930355491933</v>
+        <v>0.9462434764326121</v>
       </c>
       <c r="D11">
-        <v>1.026441893307249</v>
+        <v>1.018132495251285</v>
       </c>
       <c r="E11">
-        <v>1.007179031082851</v>
+        <v>0.9616889567882987</v>
       </c>
       <c r="F11">
-        <v>1.017282181509308</v>
+        <v>0.9508748195678149</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030024754799628</v>
+        <v>1.043800664149925</v>
       </c>
       <c r="J11">
-        <v>1.010730159018035</v>
+        <v>0.9780371586995408</v>
       </c>
       <c r="K11">
-        <v>1.030044795824873</v>
+        <v>1.032720373407105</v>
       </c>
       <c r="L11">
-        <v>1.010856373672895</v>
+        <v>0.9773714282909746</v>
       </c>
       <c r="M11">
-        <v>1.020920090980698</v>
+        <v>0.9667866929827762</v>
       </c>
       <c r="N11">
-        <v>1.007714325819567</v>
+        <v>0.9965710131564282</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003684855744885</v>
+        <v>0.9448907382408187</v>
       </c>
       <c r="D12">
-        <v>1.026324903551513</v>
+        <v>1.017348166435727</v>
       </c>
       <c r="E12">
-        <v>1.006971604542183</v>
+        <v>0.9606320945305857</v>
       </c>
       <c r="F12">
-        <v>1.016960269692132</v>
+        <v>0.9490029182851579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029993629606143</v>
+        <v>1.043408676335815</v>
       </c>
       <c r="J12">
-        <v>1.010574961470965</v>
+        <v>0.9772254866284338</v>
       </c>
       <c r="K12">
-        <v>1.029973710656089</v>
+        <v>1.032150382902776</v>
       </c>
       <c r="L12">
-        <v>1.010696236861647</v>
+        <v>0.9765544905858081</v>
       </c>
       <c r="M12">
-        <v>1.020645366552564</v>
+        <v>0.9651770058468494</v>
       </c>
       <c r="N12">
-        <v>1.007662014048544</v>
+        <v>0.9962934443577564</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003737515032252</v>
+        <v>0.9451817462465362</v>
       </c>
       <c r="D13">
-        <v>1.026350020482722</v>
+        <v>1.017516985226588</v>
       </c>
       <c r="E13">
-        <v>1.007016093719059</v>
+        <v>0.9608593725984896</v>
       </c>
       <c r="F13">
-        <v>1.017029348720555</v>
+        <v>0.9494058850724051</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030000333779533</v>
+        <v>1.043493199160894</v>
       </c>
       <c r="J13">
-        <v>1.010608254962992</v>
+        <v>0.9774001131261929</v>
       </c>
       <c r="K13">
-        <v>1.029988986990607</v>
+        <v>1.032273176078988</v>
       </c>
       <c r="L13">
-        <v>1.010730587579397</v>
+        <v>0.9767302234734856</v>
       </c>
       <c r="M13">
-        <v>1.020704327927282</v>
+        <v>0.9655235634827068</v>
       </c>
       <c r="N13">
-        <v>1.007673236938809</v>
+        <v>0.9963531641165696</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003910061845842</v>
+        <v>0.9461320360071954</v>
       </c>
       <c r="D14">
-        <v>1.026432232922478</v>
+        <v>1.018067921950937</v>
       </c>
       <c r="E14">
-        <v>1.007161883103043</v>
+        <v>0.9616018553689397</v>
       </c>
       <c r="F14">
-        <v>1.017255584730899</v>
+        <v>0.9507207325816946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030022194476502</v>
+        <v>1.043768460178715</v>
       </c>
       <c r="J14">
-        <v>1.010717331733902</v>
+        <v>0.9779702990281253</v>
       </c>
       <c r="K14">
-        <v>1.030038932673754</v>
+        <v>1.032673495265607</v>
       </c>
       <c r="L14">
-        <v>1.010843137087593</v>
+        <v>0.977304122991308</v>
       </c>
       <c r="M14">
-        <v>1.020897396621752</v>
+        <v>0.9666542075988339</v>
       </c>
       <c r="N14">
-        <v>1.007710002540797</v>
+        <v>0.996548150162847</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004016377276115</v>
+        <v>0.9467150992825155</v>
       </c>
       <c r="D15">
-        <v>1.026482821585771</v>
+        <v>1.018405690442817</v>
       </c>
       <c r="E15">
-        <v>1.007251721985019</v>
+        <v>0.962057646437226</v>
       </c>
       <c r="F15">
-        <v>1.017394894677476</v>
+        <v>0.9515266802465725</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03003558240062</v>
+        <v>1.043936775103683</v>
       </c>
       <c r="J15">
-        <v>1.010784528480953</v>
+        <v>0.9783200988114847</v>
       </c>
       <c r="K15">
-        <v>1.03006962288813</v>
+        <v>1.032918606334501</v>
       </c>
       <c r="L15">
-        <v>1.010912480127514</v>
+        <v>0.9776562779674871</v>
       </c>
       <c r="M15">
-        <v>1.021016258773905</v>
+        <v>0.9673471335839837</v>
       </c>
       <c r="N15">
-        <v>1.007732649659373</v>
+        <v>0.9966677636407545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004635234990551</v>
+        <v>0.9500724089522691</v>
       </c>
       <c r="D16">
-        <v>1.026776273393788</v>
+        <v>1.020346378631707</v>
       </c>
       <c r="E16">
-        <v>1.007774824880294</v>
+        <v>0.9646855430695799</v>
       </c>
       <c r="F16">
-        <v>1.018204495191791</v>
+        <v>0.9561554765740153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030112265595209</v>
+        <v>1.044897127194127</v>
       </c>
       <c r="J16">
-        <v>1.011175504414058</v>
+        <v>0.9803335492267397</v>
       </c>
       <c r="K16">
-        <v>1.03024698509493</v>
+        <v>1.034322111374199</v>
       </c>
       <c r="L16">
-        <v>1.011316049459196</v>
+        <v>0.9796844379478558</v>
       </c>
       <c r="M16">
-        <v>1.02170665562929</v>
+        <v>0.9713250413248117</v>
       </c>
       <c r="N16">
-        <v>1.007864383465707</v>
+        <v>0.9973561437875875</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005023477728558</v>
+        <v>0.9521472817114468</v>
       </c>
       <c r="D17">
-        <v>1.026959468972069</v>
+        <v>1.021541893610507</v>
       </c>
       <c r="E17">
-        <v>1.008103130952846</v>
+        <v>0.9663125631696169</v>
       </c>
       <c r="F17">
-        <v>1.018711242233537</v>
+        <v>0.9590058683469463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030159273558201</v>
+        <v>1.045482801610951</v>
       </c>
       <c r="J17">
-        <v>1.01142063161988</v>
+        <v>0.9815772402294519</v>
       </c>
       <c r="K17">
-        <v>1.030357121465034</v>
+        <v>1.03518247146557</v>
       </c>
       <c r="L17">
-        <v>1.011569165052211</v>
+        <v>0.9809382134719233</v>
       </c>
       <c r="M17">
-        <v>1.022138462555479</v>
+        <v>0.973772992690319</v>
       </c>
       <c r="N17">
-        <v>1.007946944160334</v>
+        <v>0.9977812426188637</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005249951177237</v>
+        <v>0.953346683968268</v>
       </c>
       <c r="D18">
-        <v>1.027066006402557</v>
+        <v>1.022231515176441</v>
       </c>
       <c r="E18">
-        <v>1.008294690171396</v>
+        <v>0.9672541095565955</v>
       </c>
       <c r="F18">
-        <v>1.019006425463499</v>
+        <v>0.9606499242612963</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030186298079939</v>
+        <v>1.045818493980343</v>
       </c>
       <c r="J18">
-        <v>1.011563566334414</v>
+        <v>0.9822959229665515</v>
       </c>
       <c r="K18">
-        <v>1.030420958594083</v>
+        <v>1.035677229039205</v>
       </c>
       <c r="L18">
-        <v>1.011716791243675</v>
+        <v>0.9816630782080324</v>
       </c>
       <c r="M18">
-        <v>1.022389874112876</v>
+        <v>0.9751843146251035</v>
       </c>
       <c r="N18">
-        <v>1.007995074295579</v>
+        <v>0.9980268503721966</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005327175841419</v>
+        <v>0.9537538444913488</v>
       </c>
       <c r="D19">
-        <v>1.027102279003287</v>
+        <v>1.022465366920032</v>
       </c>
       <c r="E19">
-        <v>1.008360017732753</v>
+        <v>0.9675739081363748</v>
       </c>
       <c r="F19">
-        <v>1.019107008577743</v>
+        <v>0.9612074182008156</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030195445804343</v>
+        <v>1.045931961788499</v>
       </c>
       <c r="J19">
-        <v>1.011612295943544</v>
+        <v>0.9825398511388498</v>
       </c>
       <c r="K19">
-        <v>1.030442656903313</v>
+        <v>1.035844741139118</v>
       </c>
       <c r="L19">
-        <v>1.011767125946243</v>
+        <v>0.9819091643122261</v>
       </c>
       <c r="M19">
-        <v>1.022475521953818</v>
+        <v>0.975662782566046</v>
       </c>
       <c r="N19">
-        <v>1.008011480995928</v>
+        <v>0.9981102049477144</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004981821095209</v>
+        <v>0.9519257963043862</v>
       </c>
       <c r="D20">
-        <v>1.026939846640301</v>
+        <v>1.021414426436061</v>
       </c>
       <c r="E20">
-        <v>1.008067900212379</v>
+        <v>0.9661387769539204</v>
       </c>
       <c r="F20">
-        <v>1.018656913809377</v>
+        <v>0.9587019783809128</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030154270837246</v>
+        <v>1.045420579140375</v>
       </c>
       <c r="J20">
-        <v>1.011394336324931</v>
+        <v>0.9814445058721689</v>
       </c>
       <c r="K20">
-        <v>1.030345346603613</v>
+        <v>1.03509089792591</v>
       </c>
       <c r="L20">
-        <v>1.011542009369465</v>
+        <v>0.9808043659238336</v>
       </c>
       <c r="M20">
-        <v>1.022092180735281</v>
+        <v>0.9735120713591181</v>
       </c>
       <c r="N20">
-        <v>1.007938088880608</v>
+        <v>0.9977358776645713</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003859250351586</v>
+        <v>0.9458527102294777</v>
       </c>
       <c r="D21">
-        <v>1.026408036973385</v>
+        <v>1.017906036177213</v>
       </c>
       <c r="E21">
-        <v>1.007118949006285</v>
+        <v>0.9613835635462354</v>
       </c>
       <c r="F21">
-        <v>1.017188980851429</v>
+        <v>0.9503344159649243</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030015773954213</v>
+        <v>1.04368767049621</v>
       </c>
       <c r="J21">
-        <v>1.010685213229255</v>
+        <v>0.9778027094737337</v>
       </c>
       <c r="K21">
-        <v>1.030024242196463</v>
+        <v>1.032555932662283</v>
       </c>
       <c r="L21">
-        <v>1.01080999456801</v>
+        <v>0.9771354258311452</v>
       </c>
       <c r="M21">
-        <v>1.020840562254509</v>
+        <v>0.9663220352947594</v>
       </c>
       <c r="N21">
-        <v>1.007699177108544</v>
+        <v>0.9964908411972005</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00315360501026</v>
+        <v>0.9419286451050274</v>
       </c>
       <c r="D22">
-        <v>1.026070821521077</v>
+        <v>1.015627159919543</v>
       </c>
       <c r="E22">
-        <v>1.006522883139697</v>
+        <v>0.9583211649307132</v>
       </c>
       <c r="F22">
-        <v>1.016262474809301</v>
+        <v>0.944892763542317</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029925150295622</v>
+        <v>1.042542400746878</v>
       </c>
       <c r="J22">
-        <v>1.010238964212224</v>
+        <v>0.9754475539961263</v>
       </c>
       <c r="K22">
-        <v>1.029818727095951</v>
+        <v>1.030895268840652</v>
       </c>
       <c r="L22">
-        <v>1.0103496417668</v>
+        <v>0.974766110682142</v>
       </c>
       <c r="M22">
-        <v>1.020049523299537</v>
+        <v>0.9616410882571903</v>
       </c>
       <c r="N22">
-        <v>1.007548728759573</v>
+        <v>0.995685345263427</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003527665990984</v>
+        <v>0.9440192949992349</v>
       </c>
       <c r="D23">
-        <v>1.026249854864848</v>
+        <v>1.016842340980234</v>
       </c>
       <c r="E23">
-        <v>1.006838814093312</v>
+        <v>0.9599517553686892</v>
       </c>
       <c r="F23">
-        <v>1.016753971038632</v>
+        <v>0.9477953134906981</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029973527264826</v>
+        <v>1.043154933218559</v>
       </c>
       <c r="J23">
-        <v>1.010475566733607</v>
+        <v>0.9767025065275823</v>
       </c>
       <c r="K23">
-        <v>1.029928017506868</v>
+        <v>1.031782110585953</v>
       </c>
       <c r="L23">
-        <v>1.010593693516067</v>
+        <v>0.9760282833572778</v>
       </c>
       <c r="M23">
-        <v>1.020469256632238</v>
+        <v>0.9641383260040731</v>
       </c>
       <c r="N23">
-        <v>1.007628506541719</v>
+        <v>0.9961145848815286</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005000643878735</v>
+        <v>0.9520259094276086</v>
       </c>
       <c r="D24">
-        <v>1.026948714108358</v>
+        <v>1.021472047129345</v>
       </c>
       <c r="E24">
-        <v>1.008083819270126</v>
+        <v>0.9662173264833955</v>
       </c>
       <c r="F24">
-        <v>1.018681463701221</v>
+        <v>0.9588393502925641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030156532570217</v>
+        <v>1.045448713070992</v>
       </c>
       <c r="J24">
-        <v>1.011406218172111</v>
+        <v>0.981504503597817</v>
       </c>
       <c r="K24">
-        <v>1.030350668403599</v>
+        <v>1.035132297901009</v>
       </c>
       <c r="L24">
-        <v>1.011554279890064</v>
+        <v>0.9808648657280357</v>
       </c>
       <c r="M24">
-        <v>1.022113094899857</v>
+        <v>0.9736300214296375</v>
       </c>
       <c r="N24">
-        <v>1.007942090281002</v>
+        <v>0.9977563833656586</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00671066125412</v>
+        <v>0.9608953391984622</v>
       </c>
       <c r="D25">
-        <v>1.027747240151959</v>
+        <v>1.026543907418478</v>
       </c>
       <c r="E25">
-        <v>1.00953108142368</v>
+        <v>0.9731974430635089</v>
       </c>
       <c r="F25">
-        <v>1.020902770449074</v>
+        <v>0.9709338724321677</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030353422593306</v>
+        <v>1.047879176165335</v>
       </c>
       <c r="J25">
-        <v>1.012484467622265</v>
+        <v>0.986814407658304</v>
       </c>
       <c r="K25">
-        <v>1.030825293903405</v>
+        <v>1.038743678148426</v>
       </c>
       <c r="L25">
-        <v>1.01266852141279</v>
+        <v>0.9862265902681395</v>
       </c>
       <c r="M25">
-        <v>1.02400286545531</v>
+        <v>0.9840008086046169</v>
       </c>
       <c r="N25">
-        <v>1.008304961848062</v>
+        <v>0.9995702354105966</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9676667829503521</v>
+        <v>0.9950174520400573</v>
       </c>
       <c r="D2">
-        <v>1.030363601712708</v>
+        <v>1.035457691862244</v>
       </c>
       <c r="E2">
-        <v>0.9785551564445865</v>
+        <v>1.002183673641574</v>
       </c>
       <c r="F2">
-        <v>0.980061246033428</v>
+        <v>1.014463815889638</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049642072823448</v>
+        <v>1.048614707065908</v>
       </c>
       <c r="J2">
-        <v>0.9908595402431676</v>
+        <v>1.017348218468511</v>
       </c>
       <c r="K2">
-        <v>1.041415529614302</v>
+        <v>1.046444194848454</v>
       </c>
       <c r="L2">
-        <v>0.9903215636021973</v>
+        <v>1.013612670023582</v>
       </c>
       <c r="M2">
-        <v>0.9918055304013134</v>
+        <v>1.025725258352659</v>
       </c>
       <c r="N2">
-        <v>1.000950528190592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009766499191316</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028932112332392</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043910340618646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9724242370721389</v>
+        <v>0.9986580784320928</v>
       </c>
       <c r="D3">
-        <v>1.033013573475086</v>
+        <v>1.037217256633137</v>
       </c>
       <c r="E3">
-        <v>0.9823347024148522</v>
+        <v>1.005021149669543</v>
       </c>
       <c r="F3">
-        <v>0.9864144807142728</v>
+        <v>1.01744967369768</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050824961121202</v>
+        <v>1.049368549807082</v>
       </c>
       <c r="J3">
-        <v>0.993695955688912</v>
+        <v>1.019185392551077</v>
       </c>
       <c r="K3">
-        <v>1.043240770953603</v>
+        <v>1.04739509164176</v>
       </c>
       <c r="L3">
-        <v>0.9931987178601807</v>
+        <v>1.0155901845714</v>
       </c>
       <c r="M3">
-        <v>0.997224193610333</v>
+        <v>1.027864046891032</v>
       </c>
       <c r="N3">
-        <v>1.001917390717098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010384492170154</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030624845738965</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044580048398206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9754338388006105</v>
+        <v>1.000968753758712</v>
       </c>
       <c r="D4">
-        <v>1.034673337993165</v>
+        <v>1.038339521521278</v>
       </c>
       <c r="E4">
-        <v>0.9847323972178653</v>
+        <v>1.006827725690721</v>
       </c>
       <c r="F4">
-        <v>0.9904065951078593</v>
+        <v>1.019352635990121</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051546810406158</v>
+        <v>1.049836556351999</v>
       </c>
       <c r="J4">
-        <v>0.9954875317393188</v>
+        <v>1.020347711137376</v>
       </c>
       <c r="K4">
-        <v>1.044370549440482</v>
+        <v>1.047996236317007</v>
       </c>
       <c r="L4">
-        <v>0.9950186496772412</v>
+        <v>1.016844438661288</v>
       </c>
       <c r="M4">
-        <v>1.000622199884228</v>
+        <v>1.029222970525081</v>
       </c>
       <c r="N4">
-        <v>1.002527601268408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010775469103183</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.031700356855437</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045005991004264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9766832814988874</v>
+        <v>1.001929794929725</v>
       </c>
       <c r="D5">
-        <v>1.03535824851031</v>
+        <v>1.038812818563402</v>
       </c>
       <c r="E5">
-        <v>0.9857293666934512</v>
+        <v>1.007580527889072</v>
       </c>
       <c r="F5">
-        <v>0.9920575149666616</v>
+        <v>1.020145920044693</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051840036121567</v>
+        <v>1.050030210188668</v>
       </c>
       <c r="J5">
-        <v>0.9962306203860116</v>
+        <v>1.020830267456999</v>
       </c>
       <c r="K5">
-        <v>1.044833482122012</v>
+        <v>1.048250892576047</v>
       </c>
       <c r="L5">
-        <v>0.995774121842178</v>
+        <v>1.017365988424294</v>
       </c>
       <c r="M5">
-        <v>1.002025720135243</v>
+        <v>1.029788471696674</v>
       </c>
       <c r="N5">
-        <v>1.002780573788501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010938035008174</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032147918526336</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045193171718129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9768921611241413</v>
+        <v>1.0020906797395</v>
       </c>
       <c r="D6">
-        <v>1.035472502533974</v>
+        <v>1.038898532617228</v>
       </c>
       <c r="E6">
-        <v>0.9858961285983877</v>
+        <v>1.007706748268484</v>
       </c>
       <c r="F6">
-        <v>0.9923331372449521</v>
+        <v>1.020278779564836</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051888674757764</v>
+        <v>1.05006436111866</v>
       </c>
       <c r="J6">
-        <v>0.9963548074514024</v>
+        <v>1.020911056154269</v>
       </c>
       <c r="K6">
-        <v>1.044910512242693</v>
+        <v>1.048299855732342</v>
       </c>
       <c r="L6">
-        <v>0.9959004148824454</v>
+        <v>1.017453432235816</v>
       </c>
       <c r="M6">
-        <v>1.002259936534416</v>
+        <v>1.029883138249361</v>
       </c>
       <c r="N6">
-        <v>1.002822843864987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010965555077265</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.032222841633107</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045236476076159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9754505951111146</v>
+        <v>1.000981901860214</v>
       </c>
       <c r="D7">
-        <v>1.034682539927515</v>
+        <v>1.038363102988819</v>
       </c>
       <c r="E7">
-        <v>0.9847457615005053</v>
+        <v>1.006838340190474</v>
       </c>
       <c r="F7">
-        <v>0.9904287609192807</v>
+        <v>1.019363377150394</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051550768497635</v>
+        <v>1.049844181817074</v>
       </c>
       <c r="J7">
-        <v>0.9954975000740021</v>
+        <v>1.020354442288357</v>
       </c>
       <c r="K7">
-        <v>1.044376782106474</v>
+        <v>1.048016704790789</v>
       </c>
       <c r="L7">
-        <v>0.9950287816815037</v>
+        <v>1.016851953220723</v>
       </c>
       <c r="M7">
-        <v>1.000641050871338</v>
+        <v>1.029230663113233</v>
       </c>
       <c r="N7">
-        <v>1.002530995321348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010778563336653</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031706445098695</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045040434059011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9692892492794383</v>
+        <v>0.9962573098516473</v>
       </c>
       <c r="D8">
-        <v>1.031270735392346</v>
+        <v>1.036076624463148</v>
       </c>
       <c r="E8">
-        <v>0.9798426752579386</v>
+        <v>1.003149203229461</v>
       </c>
       <c r="F8">
-        <v>0.982233640481771</v>
+        <v>1.015479030777138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050050972462184</v>
+        <v>1.048879371620459</v>
       </c>
       <c r="J8">
-        <v>0.9918274263049431</v>
+        <v>1.017974639460424</v>
       </c>
       <c r="K8">
-        <v>1.042043150969672</v>
+        <v>1.046789121439208</v>
       </c>
       <c r="L8">
-        <v>0.9913027950929245</v>
+        <v>1.014286684869552</v>
       </c>
       <c r="M8">
-        <v>0.9936597705571931</v>
+        <v>1.026453332739979</v>
       </c>
       <c r="N8">
-        <v>1.001280556481413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.00997829228664</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.02950834360019</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044176968428827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9578727890894557</v>
+        <v>0.9875726099931078</v>
       </c>
       <c r="D9">
-        <v>1.024823341147002</v>
+        <v>1.031892719364551</v>
       </c>
       <c r="E9">
-        <v>0.9708140185611169</v>
+        <v>0.9964137856816756</v>
       </c>
       <c r="F9">
-        <v>0.9668294134957252</v>
+        <v>1.008402535581138</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047065294219948</v>
+        <v>1.047017538629908</v>
       </c>
       <c r="J9">
-        <v>0.9850061956249256</v>
+        <v>1.013571975047689</v>
       </c>
       <c r="K9">
-        <v>1.03752611778733</v>
+        <v>1.044488715510983</v>
       </c>
       <c r="L9">
-        <v>0.9843990587457365</v>
+        <v>1.009565315916772</v>
       </c>
       <c r="M9">
-        <v>0.9804846076154426</v>
+        <v>1.021360742788087</v>
       </c>
       <c r="N9">
-        <v>0.998952778486613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00849640413196</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.025477825595244</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042547310800894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.949836436260922</v>
+        <v>0.9816187949632711</v>
       </c>
       <c r="D10">
-        <v>1.020210220102456</v>
+        <v>1.029040639689339</v>
       </c>
       <c r="E10">
-        <v>0.9645006466128109</v>
+        <v>0.9918403775116116</v>
       </c>
       <c r="F10">
-        <v>0.9558308038370498</v>
+        <v>1.003841265456102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04483013148601</v>
+        <v>1.045703523154567</v>
       </c>
       <c r="J10">
-        <v>0.9801920729795792</v>
+        <v>1.010581166454206</v>
       </c>
       <c r="K10">
-        <v>1.034223915058492</v>
+        <v>1.042904632503955</v>
       </c>
       <c r="L10">
-        <v>0.9795418632786512</v>
+        <v>1.006358536044082</v>
       </c>
       <c r="M10">
-        <v>0.9710461265623654</v>
+        <v>1.018141509304042</v>
       </c>
       <c r="N10">
-        <v>0.9973077811730222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007494478642083</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.02298238289896</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041443967587318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9462434764326121</v>
+        <v>0.9797610886608621</v>
       </c>
       <c r="D11">
-        <v>1.018132495251285</v>
+        <v>1.027987355985843</v>
       </c>
       <c r="E11">
-        <v>0.9616889567882987</v>
+        <v>0.9905091761909981</v>
       </c>
       <c r="F11">
-        <v>0.9508748195678149</v>
+        <v>1.004373038883514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043800664149925</v>
+        <v>1.045384953182367</v>
       </c>
       <c r="J11">
-        <v>0.9780371586995408</v>
+        <v>1.010000759906383</v>
       </c>
       <c r="K11">
-        <v>1.032720373407105</v>
+        <v>1.042400092134944</v>
       </c>
       <c r="L11">
-        <v>0.9773714282909746</v>
+        <v>1.005612322825652</v>
       </c>
       <c r="M11">
-        <v>0.9667866929827762</v>
+        <v>1.019212954628826</v>
       </c>
       <c r="N11">
-        <v>0.9965710131564282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007338348267562</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024273806201168</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041119819278996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9448907382408187</v>
+        <v>0.9793339310124682</v>
       </c>
       <c r="D12">
-        <v>1.017348166435727</v>
+        <v>1.027643119619945</v>
       </c>
       <c r="E12">
-        <v>0.9606320945305857</v>
+        <v>0.9902485989991334</v>
       </c>
       <c r="F12">
-        <v>0.9490029182851579</v>
+        <v>1.005420990292857</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043408676335815</v>
+        <v>1.045354472101472</v>
       </c>
       <c r="J12">
-        <v>0.9772254866284338</v>
+        <v>1.010039419620245</v>
       </c>
       <c r="K12">
-        <v>1.032150382902776</v>
+        <v>1.042259215601878</v>
       </c>
       <c r="L12">
-        <v>0.9765544905858081</v>
+        <v>1.005565035782594</v>
       </c>
       <c r="M12">
-        <v>0.9651770058468494</v>
+        <v>1.020445064449808</v>
       </c>
       <c r="N12">
-        <v>0.9962934443577564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007381414943765</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025579312993255</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041020216535305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9451817462465362</v>
+        <v>0.9799745483012836</v>
       </c>
       <c r="D13">
-        <v>1.017516985226588</v>
+        <v>1.027838221315608</v>
       </c>
       <c r="E13">
-        <v>0.9608593725984896</v>
+        <v>0.9907888388687417</v>
       </c>
       <c r="F13">
-        <v>0.9494058850724051</v>
+        <v>1.006956326936958</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043493199160894</v>
+        <v>1.045551048232857</v>
       </c>
       <c r="J13">
-        <v>0.9774001131261929</v>
+        <v>1.010555463639617</v>
       </c>
       <c r="K13">
-        <v>1.032273176078988</v>
+        <v>1.042408525529791</v>
       </c>
       <c r="L13">
-        <v>0.9767302234734856</v>
+        <v>1.006050028619411</v>
       </c>
       <c r="M13">
-        <v>0.9655235634827068</v>
+        <v>1.021907866816247</v>
       </c>
       <c r="N13">
-        <v>0.9963531641165696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007581221511348</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.027015762422135</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041123309464808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9461320360071954</v>
+        <v>0.9808949435891259</v>
       </c>
       <c r="D14">
-        <v>1.018067921950937</v>
+        <v>1.028220208073621</v>
       </c>
       <c r="E14">
-        <v>0.9616018553689397</v>
+        <v>0.9915197456989003</v>
       </c>
       <c r="F14">
-        <v>0.9507207325816946</v>
+        <v>1.008223997129171</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043768460178715</v>
+        <v>1.045788165957629</v>
       </c>
       <c r="J14">
-        <v>0.9779702990281253</v>
+        <v>1.011121519452656</v>
       </c>
       <c r="K14">
-        <v>1.032673495265607</v>
+        <v>1.042645156365446</v>
       </c>
       <c r="L14">
-        <v>0.977304122991308</v>
+        <v>1.006620560423279</v>
       </c>
       <c r="M14">
-        <v>0.9666542075988339</v>
+        <v>1.023009237400515</v>
       </c>
       <c r="N14">
-        <v>0.996548150162847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007788297390064</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.028061314174231</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041292025699841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9467150992825155</v>
+        <v>0.9813604386041568</v>
       </c>
       <c r="D15">
-        <v>1.018405690442817</v>
+        <v>1.028437425772188</v>
       </c>
       <c r="E15">
-        <v>0.962057646437226</v>
+        <v>0.9918805768150305</v>
       </c>
       <c r="F15">
-        <v>0.9515266802465725</v>
+        <v>1.008686932290756</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043936775103683</v>
+        <v>1.045899916192462</v>
       </c>
       <c r="J15">
-        <v>0.9783200988114847</v>
+        <v>1.011373820387731</v>
       </c>
       <c r="K15">
-        <v>1.032918606334501</v>
+        <v>1.042773203240239</v>
       </c>
       <c r="L15">
-        <v>0.9776562779674871</v>
+        <v>1.006884465990982</v>
       </c>
       <c r="M15">
-        <v>0.9673471335839837</v>
+        <v>1.02337583646798</v>
       </c>
       <c r="N15">
-        <v>0.9966677636407545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007876743370018</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028388917083736</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04138838173535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9500724089522691</v>
+        <v>0.9837378100922731</v>
       </c>
       <c r="D16">
-        <v>1.020346378631707</v>
+        <v>1.029603896373265</v>
       </c>
       <c r="E16">
-        <v>0.9646855430695799</v>
+        <v>0.9936900292898526</v>
       </c>
       <c r="F16">
-        <v>0.9561554765740153</v>
+        <v>1.01036120729781</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044897127194127</v>
+        <v>1.046427129231772</v>
       </c>
       <c r="J16">
-        <v>0.9803335492267397</v>
+        <v>1.012532928488972</v>
       </c>
       <c r="K16">
-        <v>1.034322111374199</v>
+        <v>1.043423281800476</v>
       </c>
       <c r="L16">
-        <v>0.9796844379478558</v>
+        <v>1.008137138699136</v>
       </c>
       <c r="M16">
-        <v>0.9713250413248117</v>
+        <v>1.024509737627333</v>
       </c>
       <c r="N16">
-        <v>0.9973561437875875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008260146084054</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029246102030767</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041851149263722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9521472817114468</v>
+        <v>0.9850879638128596</v>
       </c>
       <c r="D17">
-        <v>1.021541893610507</v>
+        <v>1.030303287042972</v>
       </c>
       <c r="E17">
-        <v>0.9663125631696169</v>
+        <v>0.9947039759387934</v>
       </c>
       <c r="F17">
-        <v>0.9590058683469463</v>
+        <v>1.010987014798896</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045482801610951</v>
+        <v>1.046707599427986</v>
       </c>
       <c r="J17">
-        <v>0.9815772402294519</v>
+        <v>1.01313150151147</v>
       </c>
       <c r="K17">
-        <v>1.03518247146557</v>
+        <v>1.043800063025763</v>
       </c>
       <c r="L17">
-        <v>0.9809382134719233</v>
+        <v>1.008805505248716</v>
       </c>
       <c r="M17">
-        <v>0.973772992690319</v>
+        <v>1.024805105779682</v>
       </c>
       <c r="N17">
-        <v>0.9977812426188637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008447696574339</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029349368810518</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042120114493755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.953346683968268</v>
+        <v>0.9856482285727196</v>
       </c>
       <c r="D18">
-        <v>1.022231515176441</v>
+        <v>1.03064857100256</v>
       </c>
       <c r="E18">
-        <v>0.9672541095565955</v>
+        <v>0.9950955304334345</v>
       </c>
       <c r="F18">
-        <v>0.9606499242612963</v>
+        <v>1.010601756315395</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045818493980343</v>
+        <v>1.046788719691342</v>
       </c>
       <c r="J18">
-        <v>0.9822959229665515</v>
+        <v>1.013264612000855</v>
       </c>
       <c r="K18">
-        <v>1.035677229039205</v>
+        <v>1.043958440503837</v>
       </c>
       <c r="L18">
-        <v>0.9816630782080324</v>
+        <v>1.00899946185345</v>
       </c>
       <c r="M18">
-        <v>0.9751843146251035</v>
+        <v>1.024239964976793</v>
       </c>
       <c r="N18">
-        <v>0.9980268503721966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008469726227461</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028662393588531</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042220545621722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9537538444913488</v>
+        <v>0.9854540959227853</v>
       </c>
       <c r="D19">
-        <v>1.022465366920032</v>
+        <v>1.030685932921465</v>
       </c>
       <c r="E19">
-        <v>0.9675739081363748</v>
+        <v>0.9948896110120384</v>
       </c>
       <c r="F19">
-        <v>0.9612074182008156</v>
+        <v>1.00918858734314</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045931961788499</v>
+        <v>1.046684349045905</v>
       </c>
       <c r="J19">
-        <v>0.9825398511388498</v>
+        <v>1.012940206200223</v>
       </c>
       <c r="K19">
-        <v>1.035844741139118</v>
+        <v>1.043933385758207</v>
       </c>
       <c r="L19">
-        <v>0.9819091643122261</v>
+        <v>1.008732122773237</v>
       </c>
       <c r="M19">
-        <v>0.975662782566046</v>
+        <v>1.0227868736385</v>
       </c>
       <c r="N19">
-        <v>0.9981102049477144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008332702736109</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027183674239523</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042209175833292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9519257963043862</v>
+        <v>0.9831632919196841</v>
       </c>
       <c r="D20">
-        <v>1.021414426436061</v>
+        <v>1.029817467404046</v>
       </c>
       <c r="E20">
-        <v>0.9661387769539204</v>
+        <v>0.9930254194043771</v>
       </c>
       <c r="F20">
-        <v>0.9587019783809128</v>
+        <v>1.005033085589574</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045420579140375</v>
+        <v>1.046058210589826</v>
       </c>
       <c r="J20">
-        <v>0.9814445058721689</v>
+        <v>1.011359031800909</v>
       </c>
       <c r="K20">
-        <v>1.03509089792591</v>
+        <v>1.043355520951446</v>
       </c>
       <c r="L20">
-        <v>0.9808043659238336</v>
+        <v>1.007192027179719</v>
       </c>
       <c r="M20">
-        <v>0.9735120713591181</v>
+        <v>1.018988007851398</v>
       </c>
       <c r="N20">
-        <v>0.9977358776645713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007757658954685</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023641560482572</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041804492229162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9458527102294777</v>
+        <v>0.9785369969672256</v>
       </c>
       <c r="D21">
-        <v>1.017906036177213</v>
+        <v>1.02763954346571</v>
       </c>
       <c r="E21">
-        <v>0.9613835635462354</v>
+        <v>0.989467103778407</v>
       </c>
       <c r="F21">
-        <v>0.9503344159649243</v>
+        <v>1.001121388245309</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04368767049621</v>
+        <v>1.044997670894608</v>
       </c>
       <c r="J21">
-        <v>0.9778027094737337</v>
+        <v>1.008960317069278</v>
       </c>
       <c r="K21">
-        <v>1.032555932662283</v>
+        <v>1.042115537565984</v>
       </c>
       <c r="L21">
-        <v>0.9771354258311452</v>
+        <v>1.004650811012413</v>
       </c>
       <c r="M21">
-        <v>0.9663220352947594</v>
+        <v>1.016081546681722</v>
       </c>
       <c r="N21">
-        <v>0.9964908411972005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006946904113424</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.021299593451914</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04093098095639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9419286451050274</v>
+        <v>0.9756165475486384</v>
       </c>
       <c r="D22">
-        <v>1.015627159919543</v>
+        <v>1.026246173176868</v>
       </c>
       <c r="E22">
-        <v>0.9583211649307132</v>
+        <v>0.9872337760015449</v>
       </c>
       <c r="F22">
-        <v>0.944892763542317</v>
+        <v>0.9987836937947945</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042542400746878</v>
+        <v>1.044320756397008</v>
       </c>
       <c r="J22">
-        <v>0.9754475539961263</v>
+        <v>1.007465555485629</v>
       </c>
       <c r="K22">
-        <v>1.030895268840652</v>
+        <v>1.04131502293707</v>
       </c>
       <c r="L22">
-        <v>0.974766110682142</v>
+        <v>1.003062448555403</v>
       </c>
       <c r="M22">
-        <v>0.9616410882571903</v>
+        <v>1.01437928451793</v>
       </c>
       <c r="N22">
-        <v>0.995685345263427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00644280205807</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019952328545446</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040351590813753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9440192949992349</v>
+        <v>0.9771717513785455</v>
       </c>
       <c r="D23">
-        <v>1.016842340980234</v>
+        <v>1.026973079658747</v>
       </c>
       <c r="E23">
-        <v>0.9599517553686892</v>
+        <v>0.9884220487024256</v>
       </c>
       <c r="F23">
-        <v>0.9477953134906981</v>
+        <v>1.000027226517945</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043154933218559</v>
+        <v>1.044678949935576</v>
       </c>
       <c r="J23">
-        <v>0.9767025065275823</v>
+        <v>1.00826226949674</v>
       </c>
       <c r="K23">
-        <v>1.031782110585953</v>
+        <v>1.041727593040113</v>
       </c>
       <c r="L23">
-        <v>0.9760282833572778</v>
+        <v>1.003908188955901</v>
       </c>
       <c r="M23">
-        <v>0.9641383260040731</v>
+        <v>1.01528534507476</v>
       </c>
       <c r="N23">
-        <v>0.9961145848815286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006710570223228</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02066943557601</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040633736665376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9520259094276086</v>
+        <v>0.9831624754302759</v>
       </c>
       <c r="D24">
-        <v>1.021472047129345</v>
+        <v>1.029812009508389</v>
       </c>
       <c r="E24">
-        <v>0.9662173264833955</v>
+        <v>0.9930158441961489</v>
       </c>
       <c r="F24">
-        <v>0.9588393502925641</v>
+        <v>1.004838861561289</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045448713070992</v>
+        <v>1.04604302384259</v>
       </c>
       <c r="J24">
-        <v>0.981504503597817</v>
+        <v>1.011324440589791</v>
       </c>
       <c r="K24">
-        <v>1.035132297901009</v>
+        <v>1.043335066247158</v>
       </c>
       <c r="L24">
-        <v>0.9808648657280357</v>
+        <v>1.007166729687743</v>
       </c>
       <c r="M24">
-        <v>0.9736300214296375</v>
+        <v>1.018781530919707</v>
       </c>
       <c r="N24">
-        <v>0.9977563833656586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00774130049326</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.023436505533777</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041762841263637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9608953391984622</v>
+        <v>0.9898618344941664</v>
       </c>
       <c r="D25">
-        <v>1.026543907418478</v>
+        <v>1.033015551635316</v>
       </c>
       <c r="E25">
-        <v>0.9731974430635089</v>
+        <v>0.9981840387217317</v>
       </c>
       <c r="F25">
-        <v>0.9709338724321677</v>
+        <v>1.010260474023077</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047879176165335</v>
+        <v>1.047524076135108</v>
       </c>
       <c r="J25">
-        <v>0.986814407658304</v>
+        <v>1.01473527257471</v>
       </c>
       <c r="K25">
-        <v>1.038743678148426</v>
+        <v>1.045122085119343</v>
       </c>
       <c r="L25">
-        <v>0.9862265902681395</v>
+        <v>1.010810610712225</v>
       </c>
       <c r="M25">
-        <v>0.9840008086046169</v>
+        <v>1.02270157036549</v>
       </c>
       <c r="N25">
-        <v>0.9995702354105966</v>
+        <v>1.008889385035451</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026539022635126</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043023500056306</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9950174520400573</v>
+        <v>0.9952279444106462</v>
       </c>
       <c r="D2">
-        <v>1.035457691862244</v>
+        <v>1.032771603015095</v>
       </c>
       <c r="E2">
-        <v>1.002183673641574</v>
+        <v>1.00236159137357</v>
       </c>
       <c r="F2">
-        <v>1.014463815889638</v>
+        <v>1.014555001997024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048614707065908</v>
+        <v>1.047662784875096</v>
       </c>
       <c r="J2">
-        <v>1.017348218468511</v>
+        <v>1.017552329739344</v>
       </c>
       <c r="K2">
-        <v>1.046444194848454</v>
+        <v>1.043792503668239</v>
       </c>
       <c r="L2">
-        <v>1.013612670023582</v>
+        <v>1.013788123235102</v>
       </c>
       <c r="M2">
-        <v>1.025725258352659</v>
+        <v>1.025815219357761</v>
       </c>
       <c r="N2">
-        <v>1.009766499191316</v>
+        <v>1.011895427732777</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028932112332392</v>
+        <v>1.029003311599745</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043910340618646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04204410607313</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023732156384034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9986580784320928</v>
+        <v>0.9988078660338156</v>
       </c>
       <c r="D3">
-        <v>1.037217256633137</v>
+        <v>1.03437408143466</v>
       </c>
       <c r="E3">
-        <v>1.005021149669543</v>
+        <v>1.005146961362285</v>
       </c>
       <c r="F3">
-        <v>1.01744967369768</v>
+        <v>1.017514475103724</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049368549807082</v>
+        <v>1.048340708255328</v>
       </c>
       <c r="J3">
-        <v>1.019185392551077</v>
+        <v>1.019331082665243</v>
       </c>
       <c r="K3">
-        <v>1.04739509164176</v>
+        <v>1.044585248555844</v>
       </c>
       <c r="L3">
-        <v>1.0155901845714</v>
+        <v>1.015714406741493</v>
       </c>
       <c r="M3">
-        <v>1.027864046891032</v>
+        <v>1.027928054217601</v>
       </c>
       <c r="N3">
-        <v>1.010384492170154</v>
+        <v>1.012372378351637</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030624845738965</v>
+        <v>1.030675503951252</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044580048398206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042601714902746</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023845457405947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000968753758712</v>
+        <v>1.001080400167794</v>
       </c>
       <c r="D4">
-        <v>1.038339521521278</v>
+        <v>1.035396938247918</v>
       </c>
       <c r="E4">
-        <v>1.006827725690721</v>
+        <v>1.006920740992034</v>
       </c>
       <c r="F4">
-        <v>1.019352635990121</v>
+        <v>1.019400895286503</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049836556351999</v>
+        <v>1.048760563490438</v>
       </c>
       <c r="J4">
-        <v>1.020347711137376</v>
+        <v>1.020456509517429</v>
       </c>
       <c r="K4">
-        <v>1.047996236317007</v>
+        <v>1.045086128879774</v>
       </c>
       <c r="L4">
-        <v>1.016844438661288</v>
+        <v>1.016936350266397</v>
       </c>
       <c r="M4">
-        <v>1.029222970525081</v>
+        <v>1.029270674407461</v>
       </c>
       <c r="N4">
-        <v>1.010775469103183</v>
+        <v>1.012674152387577</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031700356855437</v>
+        <v>1.031738111747281</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045005991004264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042956850062932</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023914232692007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001929794929725</v>
+        <v>1.002025752577065</v>
       </c>
       <c r="D5">
-        <v>1.038812818563402</v>
+        <v>1.035828737650382</v>
       </c>
       <c r="E5">
-        <v>1.007580527889072</v>
+        <v>1.007660033442304</v>
       </c>
       <c r="F5">
-        <v>1.020145920044693</v>
+        <v>1.020187383031996</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050030210188668</v>
+        <v>1.048934219269823</v>
       </c>
       <c r="J5">
-        <v>1.020830267456999</v>
+        <v>1.020923850217723</v>
       </c>
       <c r="K5">
-        <v>1.048250892576047</v>
+        <v>1.045298892501732</v>
       </c>
       <c r="L5">
-        <v>1.017365988424294</v>
+        <v>1.017444575905462</v>
       </c>
       <c r="M5">
-        <v>1.029788471696674</v>
+        <v>1.029829470291934</v>
       </c>
       <c r="N5">
-        <v>1.010938035008174</v>
+        <v>1.012799644155684</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032147918526336</v>
+        <v>1.032180366546638</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045193171718129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043115131100377</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023943359978734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0020906797395</v>
+        <v>1.002184124804077</v>
       </c>
       <c r="D6">
-        <v>1.038898532617228</v>
+        <v>1.035907236821695</v>
       </c>
       <c r="E6">
-        <v>1.007706748268484</v>
+        <v>1.007784080673642</v>
       </c>
       <c r="F6">
-        <v>1.020278779564836</v>
+        <v>1.02031915445726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05006436111866</v>
+        <v>1.048965049767563</v>
       </c>
       <c r="J6">
-        <v>1.020911056154269</v>
+        <v>1.021002200356831</v>
       </c>
       <c r="K6">
-        <v>1.048299855732342</v>
+        <v>1.045340574840277</v>
       </c>
       <c r="L6">
-        <v>1.017453432235816</v>
+        <v>1.017529875778328</v>
       </c>
       <c r="M6">
-        <v>1.029883138249361</v>
+        <v>1.029923063019666</v>
       </c>
       <c r="N6">
-        <v>1.010965555077265</v>
+        <v>1.01282090083041</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032222841633107</v>
+        <v>1.032254439779609</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045236476076159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043154167411724</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023949750119723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000981901860214</v>
+        <v>1.001102051265822</v>
       </c>
       <c r="D7">
-        <v>1.038363102988819</v>
+        <v>1.035420909021233</v>
       </c>
       <c r="E7">
-        <v>1.006838340190474</v>
+        <v>1.006938913156406</v>
       </c>
       <c r="F7">
-        <v>1.019363377150394</v>
+        <v>1.019415311627911</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049844181817074</v>
+        <v>1.048770897989878</v>
       </c>
       <c r="J7">
-        <v>1.020354442288357</v>
+        <v>1.020471528024814</v>
       </c>
       <c r="K7">
-        <v>1.048016704790789</v>
+        <v>1.045106969725836</v>
       </c>
       <c r="L7">
-        <v>1.016851953220723</v>
+        <v>1.016951333255785</v>
       </c>
       <c r="M7">
-        <v>1.029230663113233</v>
+        <v>1.029282000097336</v>
       </c>
       <c r="N7">
-        <v>1.010778563336653</v>
+        <v>1.012704731900577</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031706445098695</v>
+        <v>1.031747075382118</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045040434059011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042993580211021</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023919189950271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9962573098516473</v>
+        <v>0.9964734104259385</v>
       </c>
       <c r="D8">
-        <v>1.036076624463148</v>
+        <v>1.033341240985894</v>
       </c>
       <c r="E8">
-        <v>1.003149203229461</v>
+        <v>1.003332814746618</v>
       </c>
       <c r="F8">
-        <v>1.015479030777138</v>
+        <v>1.015572603623487</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048879371620459</v>
+        <v>1.047910675953414</v>
       </c>
       <c r="J8">
-        <v>1.017974639460424</v>
+        <v>1.018184408484766</v>
       </c>
       <c r="K8">
-        <v>1.046789121439208</v>
+        <v>1.044087756869718</v>
       </c>
       <c r="L8">
-        <v>1.014286684869552</v>
+        <v>1.014467829407181</v>
       </c>
       <c r="M8">
-        <v>1.026453332739979</v>
+        <v>1.026545686166648</v>
       </c>
       <c r="N8">
-        <v>1.00997829228664</v>
+        <v>1.01214460865838</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.02950834360019</v>
+        <v>1.029581436278755</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044176968428827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042277907214001</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023777563883518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9875726099931078</v>
+        <v>0.9879396834763933</v>
       </c>
       <c r="D9">
-        <v>1.031892719364551</v>
+        <v>1.029535311111459</v>
       </c>
       <c r="E9">
-        <v>0.9964137856816756</v>
+        <v>0.9967267720063115</v>
       </c>
       <c r="F9">
-        <v>1.008402535581138</v>
+        <v>1.008561986288128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047017538629908</v>
+        <v>1.046231485364782</v>
       </c>
       <c r="J9">
-        <v>1.013571975047689</v>
+        <v>1.013925630648757</v>
       </c>
       <c r="K9">
-        <v>1.044488715510983</v>
+        <v>1.04216670758049</v>
       </c>
       <c r="L9">
-        <v>1.009565315916772</v>
+        <v>1.00987317922664</v>
       </c>
       <c r="M9">
-        <v>1.021360742788087</v>
+        <v>1.02151766196792</v>
       </c>
       <c r="N9">
-        <v>1.00849640413196</v>
+        <v>1.011011668659279</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025477825595244</v>
+        <v>1.025602019254565</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042547310800894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040916176973612</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023485071141164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9816187949632711</v>
+        <v>0.9821303343839657</v>
       </c>
       <c r="D10">
-        <v>1.029040639689339</v>
+        <v>1.026951528433748</v>
       </c>
       <c r="E10">
-        <v>0.9918403775116116</v>
+        <v>0.9922780376916234</v>
       </c>
       <c r="F10">
-        <v>1.003841265456102</v>
+        <v>1.004063723113272</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045703523154567</v>
+        <v>1.045056793813388</v>
       </c>
       <c r="J10">
-        <v>1.010581166454206</v>
+        <v>1.011071328515709</v>
       </c>
       <c r="K10">
-        <v>1.042904632503955</v>
+        <v>1.040850638085155</v>
       </c>
       <c r="L10">
-        <v>1.006358536044082</v>
+        <v>1.006788128417334</v>
       </c>
       <c r="M10">
-        <v>1.018141509304042</v>
+        <v>1.018359991381875</v>
       </c>
       <c r="N10">
-        <v>1.007494478642083</v>
+        <v>1.010367290741161</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.02298238289896</v>
+        <v>1.023155289938774</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041443967587318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040004018056725</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023272829547414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9797610886608621</v>
+        <v>0.980383855335246</v>
       </c>
       <c r="D11">
-        <v>1.027987355985843</v>
+        <v>1.025997552068398</v>
       </c>
       <c r="E11">
-        <v>0.9905091761909981</v>
+        <v>0.9910438925245098</v>
       </c>
       <c r="F11">
-        <v>1.004373038883514</v>
+        <v>1.004641796117388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045384953182367</v>
+        <v>1.044809503307722</v>
       </c>
       <c r="J11">
-        <v>1.010000759906383</v>
+        <v>1.010596087617637</v>
       </c>
       <c r="K11">
-        <v>1.042400092134944</v>
+        <v>1.040445299808735</v>
       </c>
       <c r="L11">
-        <v>1.005612322825652</v>
+        <v>1.006136707689456</v>
       </c>
       <c r="M11">
-        <v>1.019212954628826</v>
+        <v>1.019476702670518</v>
       </c>
       <c r="N11">
-        <v>1.007338348267562</v>
+        <v>1.010499217874527</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024273806201168</v>
+        <v>1.024482427969658</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041119819278996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039753253547678</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023216579753038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9793339310124682</v>
+        <v>0.9799993185670761</v>
       </c>
       <c r="D12">
-        <v>1.027643119619945</v>
+        <v>1.025681195809953</v>
       </c>
       <c r="E12">
-        <v>0.9902485989991334</v>
+        <v>0.9908201907307848</v>
       </c>
       <c r="F12">
-        <v>1.005420990292857</v>
+        <v>1.005706520762107</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045354472101472</v>
+        <v>1.044803908490646</v>
       </c>
       <c r="J12">
-        <v>1.010039419620245</v>
+        <v>1.010674944301762</v>
       </c>
       <c r="K12">
-        <v>1.042259215601878</v>
+        <v>1.04033238669371</v>
       </c>
       <c r="L12">
-        <v>1.005565035782594</v>
+        <v>1.006125400246606</v>
       </c>
       <c r="M12">
-        <v>1.020445064449808</v>
+        <v>1.02072520342182</v>
       </c>
       <c r="N12">
-        <v>1.007381414943765</v>
+        <v>1.010645193092713</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025579312993255</v>
+        <v>1.025800822674091</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041020216535305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039673422923846</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023202444888035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9799745483012836</v>
+        <v>0.9806216546983882</v>
       </c>
       <c r="D13">
-        <v>1.027838221315608</v>
+        <v>1.025848592970934</v>
       </c>
       <c r="E13">
-        <v>0.9907888388687417</v>
+        <v>0.9913439655832207</v>
       </c>
       <c r="F13">
-        <v>1.006956326936958</v>
+        <v>1.007232754994991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045551048232857</v>
+        <v>1.044987683014973</v>
       </c>
       <c r="J13">
-        <v>1.010555463639617</v>
+        <v>1.011173687810414</v>
       </c>
       <c r="K13">
-        <v>1.042408525529791</v>
+        <v>1.040454352721162</v>
       </c>
       <c r="L13">
-        <v>1.006050028619411</v>
+        <v>1.006594303529622</v>
       </c>
       <c r="M13">
-        <v>1.021907866816247</v>
+        <v>1.022179113395303</v>
       </c>
       <c r="N13">
-        <v>1.007581221511348</v>
+        <v>1.010775894551822</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.027015762422135</v>
+        <v>1.027230185760341</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041123309464808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039756936706527</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023225487046472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9808949435891259</v>
+        <v>0.9815029468274593</v>
       </c>
       <c r="D14">
-        <v>1.028220208073621</v>
+        <v>1.026186583562722</v>
       </c>
       <c r="E14">
-        <v>0.9915197456989003</v>
+        <v>0.992040488072182</v>
       </c>
       <c r="F14">
-        <v>1.008223997129171</v>
+        <v>1.008483051009799</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045788165957629</v>
+        <v>1.045199384856336</v>
       </c>
       <c r="J14">
-        <v>1.011121519452656</v>
+        <v>1.011702783704567</v>
       </c>
       <c r="K14">
-        <v>1.042645156365446</v>
+        <v>1.040647342023267</v>
       </c>
       <c r="L14">
-        <v>1.006620560423279</v>
+        <v>1.007131254770029</v>
       </c>
       <c r="M14">
-        <v>1.023009237400515</v>
+        <v>1.023263504568938</v>
       </c>
       <c r="N14">
-        <v>1.007788297390064</v>
+        <v>1.010858966884143</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.028061314174231</v>
+        <v>1.028262287619615</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041292025699841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039894935063028</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023258619948624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9813604386041568</v>
+        <v>0.9819466431378993</v>
       </c>
       <c r="D15">
-        <v>1.028437425772188</v>
+        <v>1.026380701296519</v>
       </c>
       <c r="E15">
-        <v>0.9918805768150305</v>
+        <v>0.9923822787726604</v>
       </c>
       <c r="F15">
-        <v>1.008686932290756</v>
+        <v>1.008936564239493</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045899916192462</v>
+        <v>1.045297035392547</v>
       </c>
       <c r="J15">
-        <v>1.011373820387731</v>
+        <v>1.011934472063398</v>
       </c>
       <c r="K15">
-        <v>1.042773203240239</v>
+        <v>1.040752430391493</v>
       </c>
       <c r="L15">
-        <v>1.006884465990982</v>
+        <v>1.007376562850394</v>
       </c>
       <c r="M15">
-        <v>1.02337583646798</v>
+        <v>1.023620892806196</v>
       </c>
       <c r="N15">
-        <v>1.007876743370018</v>
+        <v>1.010881973709268</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028388917083736</v>
+        <v>1.028582605126395</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04138838173535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039975634627874</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023276507793414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9837378100922731</v>
+        <v>0.9842117064761532</v>
       </c>
       <c r="D16">
-        <v>1.029603896373265</v>
+        <v>1.02742913355558</v>
       </c>
       <c r="E16">
-        <v>0.9936900292898526</v>
+        <v>0.9940941375564959</v>
       </c>
       <c r="F16">
-        <v>1.01036120729781</v>
+        <v>1.010563076407425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046427129231772</v>
+        <v>1.045749254780175</v>
       </c>
       <c r="J16">
-        <v>1.012532928488972</v>
+        <v>1.012987203965336</v>
       </c>
       <c r="K16">
-        <v>1.043423281800476</v>
+        <v>1.041284921439382</v>
       </c>
       <c r="L16">
-        <v>1.008137138699136</v>
+        <v>1.008533855234645</v>
       </c>
       <c r="M16">
-        <v>1.024509737627333</v>
+        <v>1.024708069491094</v>
       </c>
       <c r="N16">
-        <v>1.008260146084054</v>
+        <v>1.010952068434415</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029246102030767</v>
+        <v>1.029402864438753</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041851149263722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040355571515373</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023366035997779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9850879638128596</v>
+        <v>0.9855050034591399</v>
       </c>
       <c r="D17">
-        <v>1.030303287042972</v>
+        <v>1.028062130760663</v>
       </c>
       <c r="E17">
-        <v>0.9947039759387934</v>
+        <v>0.9950587798332882</v>
       </c>
       <c r="F17">
-        <v>1.010987014798896</v>
+        <v>1.011164944499204</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046707599427986</v>
+        <v>1.045988325748185</v>
       </c>
       <c r="J17">
-        <v>1.01313150151147</v>
+        <v>1.013531829165243</v>
       </c>
       <c r="K17">
-        <v>1.043800063025763</v>
+        <v>1.041595391310787</v>
       </c>
       <c r="L17">
-        <v>1.008805505248716</v>
+        <v>1.009154004798601</v>
       </c>
       <c r="M17">
-        <v>1.024805105779682</v>
+        <v>1.024980003379719</v>
       </c>
       <c r="N17">
-        <v>1.008447696574339</v>
+        <v>1.010992986466033</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029349368810518</v>
+        <v>1.029487622622367</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042120114493755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040577905137178</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023417182755864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9856482285727196</v>
+        <v>0.9860392640711102</v>
       </c>
       <c r="D18">
-        <v>1.03064857100256</v>
+        <v>1.02837876373458</v>
       </c>
       <c r="E18">
-        <v>0.9950955304334345</v>
+        <v>0.995427810557953</v>
       </c>
       <c r="F18">
-        <v>1.010601756315395</v>
+        <v>1.010769150083662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046788719691342</v>
+        <v>1.046049448246141</v>
       </c>
       <c r="J18">
-        <v>1.013264612000855</v>
+        <v>1.013640267777183</v>
       </c>
       <c r="K18">
-        <v>1.043958440503837</v>
+        <v>1.041724985170732</v>
       </c>
       <c r="L18">
-        <v>1.00899946185345</v>
+        <v>1.009325935437099</v>
       </c>
       <c r="M18">
-        <v>1.024239964976793</v>
+        <v>1.024404547549081</v>
       </c>
       <c r="N18">
-        <v>1.008469726227461</v>
+        <v>1.010963264712523</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028662393588531</v>
+        <v>1.02879252114684</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042220545621722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040656838948812</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023435967051016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9854540959227853</v>
+        <v>0.9858434024058178</v>
       </c>
       <c r="D19">
-        <v>1.030685932921465</v>
+        <v>1.028420999981949</v>
       </c>
       <c r="E19">
-        <v>0.9948896110120384</v>
+        <v>0.9952204011694802</v>
       </c>
       <c r="F19">
-        <v>1.00918858734314</v>
+        <v>1.009356116231898</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046684349045905</v>
+        <v>1.045943889802115</v>
       </c>
       <c r="J19">
-        <v>1.012940206200223</v>
+        <v>1.013314282350556</v>
       </c>
       <c r="K19">
-        <v>1.043933385758207</v>
+        <v>1.041704530009823</v>
       </c>
       <c r="L19">
-        <v>1.008732122773237</v>
+        <v>1.00905716041636</v>
       </c>
       <c r="M19">
-        <v>1.0227868736385</v>
+        <v>1.022951594010951</v>
       </c>
       <c r="N19">
-        <v>1.008332702736109</v>
+        <v>1.010842552725615</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027183674239523</v>
+        <v>1.027313954371555</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042209175833292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040649351246037</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023427774489667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9831632919196841</v>
+        <v>0.9836144862887949</v>
       </c>
       <c r="D20">
-        <v>1.029817467404046</v>
+        <v>1.027652233291618</v>
       </c>
       <c r="E20">
-        <v>0.9930254194043771</v>
+        <v>0.9934101905341175</v>
       </c>
       <c r="F20">
-        <v>1.005033085589574</v>
+        <v>1.005229234637155</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046058210589826</v>
+        <v>1.045367495229802</v>
       </c>
       <c r="J20">
-        <v>1.011359031800909</v>
+        <v>1.011791988939281</v>
       </c>
       <c r="K20">
-        <v>1.043355520951446</v>
+        <v>1.041225675013465</v>
       </c>
       <c r="L20">
-        <v>1.007192027179719</v>
+        <v>1.00756991203504</v>
       </c>
       <c r="M20">
-        <v>1.018988007851398</v>
+        <v>1.019180753277474</v>
       </c>
       <c r="N20">
-        <v>1.007757658954685</v>
+        <v>1.010462654811032</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023641560482572</v>
+        <v>1.023794101382271</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041804492229162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04031505890281</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023336875791312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9785369969672256</v>
+        <v>0.9792160346613904</v>
       </c>
       <c r="D21">
-        <v>1.02763954346571</v>
+        <v>1.025704978845364</v>
       </c>
       <c r="E21">
-        <v>0.989467103778407</v>
+        <v>0.9900522389384313</v>
       </c>
       <c r="F21">
-        <v>1.001121388245309</v>
+        <v>1.001417307791395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044997670894608</v>
+        <v>1.04445419225747</v>
       </c>
       <c r="J21">
-        <v>1.008960317069278</v>
+        <v>1.009609180534131</v>
       </c>
       <c r="K21">
-        <v>1.042115537565984</v>
+        <v>1.040215195620448</v>
       </c>
       <c r="L21">
-        <v>1.004650811012413</v>
+        <v>1.00522455775285</v>
       </c>
       <c r="M21">
-        <v>1.016081546681722</v>
+        <v>1.016371878500836</v>
       </c>
       <c r="N21">
-        <v>1.006946904113424</v>
+        <v>1.010294249479576</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.021299593451914</v>
+        <v>1.021529377923129</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04093098095639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039604136175988</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023166825169088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9756165475486384</v>
+        <v>0.9764395183427856</v>
       </c>
       <c r="D22">
-        <v>1.026246173176868</v>
+        <v>1.024458014383807</v>
       </c>
       <c r="E22">
-        <v>0.9872337760015449</v>
+        <v>0.9879456494428657</v>
       </c>
       <c r="F22">
-        <v>0.9987836937947945</v>
+        <v>0.9991427082108267</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044320756397008</v>
+        <v>1.043870492244838</v>
       </c>
       <c r="J22">
-        <v>1.007465555485629</v>
+        <v>1.00824980155554</v>
       </c>
       <c r="K22">
-        <v>1.04131502293707</v>
+        <v>1.039560040535878</v>
       </c>
       <c r="L22">
-        <v>1.003062448555403</v>
+        <v>1.003759748272487</v>
       </c>
       <c r="M22">
-        <v>1.01437928451793</v>
+        <v>1.014731167370712</v>
       </c>
       <c r="N22">
-        <v>1.00644280205807</v>
+        <v>1.010188381824263</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019952328545446</v>
+        <v>1.020230828418863</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040351590813753</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039126201220015</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023053275032055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9771717513785455</v>
+        <v>0.9779039133228697</v>
       </c>
       <c r="D23">
-        <v>1.026973079658747</v>
+        <v>1.025105067555621</v>
       </c>
       <c r="E23">
-        <v>0.9884220487024256</v>
+        <v>0.9890537503437719</v>
       </c>
       <c r="F23">
-        <v>1.000027226517945</v>
+        <v>1.000346451449411</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044678949935576</v>
+        <v>1.044174092847428</v>
       </c>
       <c r="J23">
-        <v>1.00826226949674</v>
+        <v>1.008961002294354</v>
       </c>
       <c r="K23">
-        <v>1.041727593040113</v>
+        <v>1.039893382282368</v>
       </c>
       <c r="L23">
-        <v>1.003908188955901</v>
+        <v>1.004527297689145</v>
       </c>
       <c r="M23">
-        <v>1.01528534507476</v>
+        <v>1.015598395749105</v>
       </c>
       <c r="N23">
-        <v>1.006710570223228</v>
+        <v>1.010201553835026</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02066943557601</v>
+        <v>1.020917201220425</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040633736665376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039351380712379</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023110560363966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9831624754302759</v>
+        <v>0.9836119868193481</v>
       </c>
       <c r="D24">
-        <v>1.029812009508389</v>
+        <v>1.027647249835492</v>
       </c>
       <c r="E24">
-        <v>0.9930158441961489</v>
+        <v>0.9933992318002287</v>
       </c>
       <c r="F24">
-        <v>1.004838861561289</v>
+        <v>1.005034432574383</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04604302384259</v>
+        <v>1.045351264568995</v>
       </c>
       <c r="J24">
-        <v>1.011324440589791</v>
+        <v>1.011755808325264</v>
       </c>
       <c r="K24">
-        <v>1.043335066247158</v>
+        <v>1.041205642214836</v>
       </c>
       <c r="L24">
-        <v>1.007166729687743</v>
+        <v>1.00754326446013</v>
       </c>
       <c r="M24">
-        <v>1.018781530919707</v>
+        <v>1.018973711012735</v>
       </c>
       <c r="N24">
-        <v>1.00774130049326</v>
+        <v>1.010445419890937</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.023436505533777</v>
+        <v>1.023588606890823</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041762841263637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.0402710061473</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023330916477474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9898618344941664</v>
+        <v>0.9901789062410635</v>
       </c>
       <c r="D25">
-        <v>1.033015551635316</v>
+        <v>1.03055506889742</v>
       </c>
       <c r="E25">
-        <v>0.9981840387217317</v>
+        <v>0.998453816493861</v>
       </c>
       <c r="F25">
-        <v>1.010260474023077</v>
+        <v>1.010398090243199</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047524076135108</v>
+        <v>1.046686443765215</v>
       </c>
       <c r="J25">
-        <v>1.01473527257471</v>
+        <v>1.015041370863161</v>
       </c>
       <c r="K25">
-        <v>1.045122085119343</v>
+        <v>1.042696875909304</v>
       </c>
       <c r="L25">
-        <v>1.010810610712225</v>
+        <v>1.011076182482645</v>
       </c>
       <c r="M25">
-        <v>1.02270157036549</v>
+        <v>1.022837105558713</v>
       </c>
       <c r="N25">
-        <v>1.008889385035451</v>
+        <v>1.011278923787297</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026539022635126</v>
+        <v>1.02664629177652</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043023500056306</v>
+        <v>1.041322236381171</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023570308392798</v>
       </c>
     </row>
   </sheetData>
